--- a/MidiThru2in10out/midithru2in10out_bom.xlsx
+++ b/MidiThru2in10out/midithru2in10out_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/_home/_schemes/_Midi/MidiThru/MidiThru2in10out/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru2in10out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E46E0A2-50F9-0F41-B8F0-550B530170B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884CAF8A-D8B8-C94E-BB4F-3EAEFFB61235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{F58E3661-9E76-9C43-AE54-D6A4E14401D0}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{F58E3661-9E76-9C43-AE54-D6A4E14401D0}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru2in10out" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="305">
   <si>
     <t>D</t>
   </si>
@@ -398,9 +398,6 @@
   </si>
   <si>
     <t>JP1</t>
-  </si>
-  <si>
-    <t>Pin_Headers:Pin_Header_Straight_1x03_Pitch2.54mm</t>
   </si>
   <si>
     <t>Dual jumper, normally closed</t>
@@ -1295,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ378"/>
+  <dimension ref="A1:AJ377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1338,9 +1335,9 @@
     <col min="36" max="36" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
@@ -1349,13 +1346,13 @@
         <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E1">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -1363,16 +1360,16 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1380,18 +1377,18 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1403,9 +1400,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
@@ -1420,9 +1417,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1431,13 +1428,13 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -1454,26 +1451,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1482,13 +1479,13 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>103</v>
       </c>
       <c r="E9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -1499,92 +1496,101 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>301</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>302</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>303</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" t="s">
+        <v>139</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>140</v>
+      </c>
+      <c r="W16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="18:29" x14ac:dyDescent="0.2">
@@ -1592,25 +1598,25 @@
         <v>14</v>
       </c>
       <c r="S17" t="s">
+        <v>139</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
         <v>140</v>
       </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>141</v>
       </c>
-      <c r="W17" t="s">
-        <v>142</v>
-      </c>
       <c r="AA17" t="s">
         <v>2</v>
       </c>
       <c r="AB17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="18:29" x14ac:dyDescent="0.2">
@@ -1618,22 +1624,22 @@
         <v>14</v>
       </c>
       <c r="S18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
         <v>140</v>
       </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>141</v>
       </c>
-      <c r="W18" t="s">
-        <v>142</v>
-      </c>
       <c r="AA18" t="s">
         <v>2</v>
       </c>
       <c r="AB18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC18" t="s">
         <v>146</v>
@@ -1644,25 +1650,25 @@
         <v>14</v>
       </c>
       <c r="S19" t="s">
+        <v>139</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
         <v>140</v>
       </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>141</v>
       </c>
-      <c r="W19" t="s">
-        <v>142</v>
-      </c>
       <c r="AA19" t="s">
         <v>2</v>
       </c>
       <c r="AB19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="18:29" x14ac:dyDescent="0.2">
@@ -1670,22 +1676,22 @@
         <v>14</v>
       </c>
       <c r="S20" t="s">
+        <v>139</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
         <v>140</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>141</v>
       </c>
-      <c r="W20" t="s">
-        <v>142</v>
-      </c>
       <c r="AA20" t="s">
         <v>2</v>
       </c>
       <c r="AB20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC20" t="s">
         <v>146</v>
@@ -1696,25 +1702,25 @@
         <v>14</v>
       </c>
       <c r="S21" t="s">
+        <v>139</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
         <v>140</v>
       </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>141</v>
       </c>
-      <c r="W21" t="s">
-        <v>142</v>
-      </c>
       <c r="AA21" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="AB21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="18:29" x14ac:dyDescent="0.2">
@@ -1722,25 +1728,25 @@
         <v>14</v>
       </c>
       <c r="S22" t="s">
+        <v>139</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
         <v>140</v>
       </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>141</v>
       </c>
-      <c r="W22" t="s">
-        <v>142</v>
-      </c>
       <c r="AA22" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="AB22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="18:29" x14ac:dyDescent="0.2">
@@ -1748,25 +1754,25 @@
         <v>14</v>
       </c>
       <c r="S23" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
         <v>140</v>
       </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>141</v>
       </c>
-      <c r="W23" t="s">
-        <v>142</v>
-      </c>
       <c r="AA23" t="s">
         <v>2</v>
       </c>
       <c r="AB23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="18:29" x14ac:dyDescent="0.2">
@@ -1774,22 +1780,22 @@
         <v>14</v>
       </c>
       <c r="S24" t="s">
+        <v>139</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
         <v>140</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>141</v>
       </c>
-      <c r="W24" t="s">
-        <v>142</v>
-      </c>
       <c r="AA24" t="s">
         <v>2</v>
       </c>
       <c r="AB24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="s">
         <v>146</v>
@@ -1800,25 +1806,25 @@
         <v>14</v>
       </c>
       <c r="S25" t="s">
+        <v>139</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
         <v>140</v>
       </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>141</v>
       </c>
-      <c r="W25" t="s">
-        <v>142</v>
-      </c>
       <c r="AA25" t="s">
         <v>2</v>
       </c>
       <c r="AB25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="18:29" x14ac:dyDescent="0.2">
@@ -1826,22 +1832,22 @@
         <v>14</v>
       </c>
       <c r="S26" t="s">
+        <v>139</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
         <v>140</v>
       </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>141</v>
       </c>
-      <c r="W26" t="s">
-        <v>142</v>
-      </c>
       <c r="AA26" t="s">
         <v>2</v>
       </c>
       <c r="AB26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="s">
         <v>146</v>
@@ -1852,25 +1858,25 @@
         <v>14</v>
       </c>
       <c r="S27" t="s">
+        <v>139</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
         <v>140</v>
       </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>141</v>
       </c>
-      <c r="W27" t="s">
-        <v>142</v>
-      </c>
       <c r="AA27" t="s">
         <v>2</v>
       </c>
       <c r="AB27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="18:29" x14ac:dyDescent="0.2">
@@ -1878,51 +1884,45 @@
         <v>14</v>
       </c>
       <c r="S28" t="s">
+        <v>139</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
         <v>140</v>
       </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>141</v>
       </c>
-      <c r="W28" t="s">
-        <v>142</v>
-      </c>
       <c r="AA28" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="AB28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R29" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="S29" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="U29" t="s">
+        <v>150</v>
       </c>
       <c r="V29" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="W29" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB29">
-        <v>14</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="18:29" x14ac:dyDescent="0.2">
@@ -1935,14 +1935,17 @@
       <c r="T30">
         <v>2</v>
       </c>
-      <c r="U30" t="s">
-        <v>151</v>
-      </c>
       <c r="V30" t="s">
         <v>123</v>
       </c>
       <c r="W30" t="s">
         <v>2</v>
+      </c>
+      <c r="X30" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="18:29" x14ac:dyDescent="0.2">
@@ -1962,10 +1965,10 @@
         <v>2</v>
       </c>
       <c r="X31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y31" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="18:29" x14ac:dyDescent="0.2">
@@ -1984,11 +1987,8 @@
       <c r="W32" t="s">
         <v>2</v>
       </c>
-      <c r="X32" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>124</v>
+      <c r="Z32" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="18:29" x14ac:dyDescent="0.2">
@@ -2007,7 +2007,13 @@
       <c r="W33" t="s">
         <v>2</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2031,10 +2037,10 @@
         <v>2</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="18:29" x14ac:dyDescent="0.2">
@@ -2042,25 +2048,22 @@
         <v>21</v>
       </c>
       <c r="S35" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V35" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="W35" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB35">
-        <v>2</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>154</v>
+        <v>18</v>
+      </c>
+      <c r="X35" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="18:29" x14ac:dyDescent="0.2">
@@ -2080,10 +2083,10 @@
         <v>18</v>
       </c>
       <c r="X36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y36" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="18:29" x14ac:dyDescent="0.2">
@@ -2102,11 +2105,8 @@
       <c r="W37" t="s">
         <v>18</v>
       </c>
-      <c r="X37" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>22</v>
+      <c r="Z37" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="18:29" x14ac:dyDescent="0.2">
@@ -2125,8 +2125,14 @@
       <c r="W38" t="s">
         <v>18</v>
       </c>
-      <c r="Z38" t="s">
-        <v>155</v>
+      <c r="AA38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="18:29" x14ac:dyDescent="0.2">
@@ -2149,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="18:29" x14ac:dyDescent="0.2">
@@ -2175,10 +2181,10 @@
         <v>2</v>
       </c>
       <c r="AB40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="18:29" x14ac:dyDescent="0.2">
@@ -2201,10 +2207,10 @@
         <v>2</v>
       </c>
       <c r="AB41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="18:29" x14ac:dyDescent="0.2">
@@ -2227,36 +2233,33 @@
         <v>2</v>
       </c>
       <c r="AB42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R43" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="S43" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V43" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="W43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB43">
-        <v>5</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="X43" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="18:29" x14ac:dyDescent="0.2">
@@ -2276,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="X44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y44" t="s">
         <v>44</v>
@@ -2298,11 +2301,8 @@
       <c r="W45" t="s">
         <v>2</v>
       </c>
-      <c r="X45" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>44</v>
+      <c r="Z45" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="18:29" x14ac:dyDescent="0.2">
@@ -2321,8 +2321,14 @@
       <c r="W46" t="s">
         <v>2</v>
       </c>
-      <c r="Z46" t="s">
-        <v>156</v>
+      <c r="AA46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="18:29" x14ac:dyDescent="0.2">
@@ -2345,10 +2351,10 @@
         <v>2</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="18:29" x14ac:dyDescent="0.2">
@@ -2356,25 +2362,22 @@
         <v>5</v>
       </c>
       <c r="S48" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="W48" t="s">
         <v>2</v>
       </c>
-      <c r="AA48" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB48">
-        <v>2</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>154</v>
+      <c r="X48" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="18:29" x14ac:dyDescent="0.2">
@@ -2394,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="X49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y49" t="s">
         <v>0</v>
@@ -2416,11 +2419,8 @@
       <c r="W50" t="s">
         <v>2</v>
       </c>
-      <c r="X50" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>0</v>
+      <c r="Z50" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="18:29" x14ac:dyDescent="0.2">
@@ -2499,8 +2499,14 @@
       <c r="W54" t="s">
         <v>2</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>160</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="18:29" x14ac:dyDescent="0.2">
@@ -2523,10 +2529,10 @@
         <v>161</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="18:29" x14ac:dyDescent="0.2">
@@ -2534,25 +2540,22 @@
         <v>5</v>
       </c>
       <c r="S56" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="T56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V56" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="W56" t="s">
         <v>2</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="X56" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y56" t="s">
         <v>162</v>
-      </c>
-      <c r="AB56">
-        <v>2</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="57" spans="18:29" x14ac:dyDescent="0.2">
@@ -2560,22 +2563,22 @@
         <v>5</v>
       </c>
       <c r="S57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T57">
         <v>6</v>
       </c>
       <c r="V57" t="s">
+        <v>126</v>
+      </c>
+      <c r="W57" t="s">
+        <v>2</v>
+      </c>
+      <c r="X57" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y57" t="s">
         <v>127</v>
-      </c>
-      <c r="W57" t="s">
-        <v>2</v>
-      </c>
-      <c r="X57" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="58" spans="18:29" x14ac:dyDescent="0.2">
@@ -2583,22 +2586,25 @@
         <v>5</v>
       </c>
       <c r="S58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T58">
         <v>6</v>
       </c>
       <c r="V58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W58" t="s">
         <v>2</v>
       </c>
-      <c r="X58" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>128</v>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="18:29" x14ac:dyDescent="0.2">
@@ -2606,25 +2612,25 @@
         <v>5</v>
       </c>
       <c r="S59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T59">
         <v>6</v>
       </c>
       <c r="V59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W59" t="s">
         <v>2</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="18:29" x14ac:dyDescent="0.2">
@@ -2632,25 +2638,25 @@
         <v>5</v>
       </c>
       <c r="S60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T60">
         <v>6</v>
       </c>
       <c r="V60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W60" t="s">
         <v>2</v>
       </c>
       <c r="AA60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="18:29" x14ac:dyDescent="0.2">
@@ -2658,25 +2664,22 @@
         <v>5</v>
       </c>
       <c r="S61" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="T61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V61" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="W61" t="s">
         <v>2</v>
       </c>
-      <c r="AA61">
-        <v>3</v>
-      </c>
-      <c r="AB61">
-        <v>3</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>154</v>
+      <c r="X61" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="18:29" x14ac:dyDescent="0.2">
@@ -2696,10 +2699,10 @@
         <v>2</v>
       </c>
       <c r="X62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y62" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="18:29" x14ac:dyDescent="0.2">
@@ -2718,11 +2721,8 @@
       <c r="W63" t="s">
         <v>2</v>
       </c>
-      <c r="X63" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>6</v>
+      <c r="Z63" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="18:29" x14ac:dyDescent="0.2">
@@ -2781,8 +2781,14 @@
       <c r="W66" t="s">
         <v>2</v>
       </c>
-      <c r="Z66" t="s">
-        <v>166</v>
+      <c r="AA66" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -2805,10 +2811,10 @@
         <v>161</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="18:29" x14ac:dyDescent="0.2">
@@ -2816,25 +2822,22 @@
         <v>5</v>
       </c>
       <c r="S68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V68" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W68" t="s">
         <v>2</v>
       </c>
-      <c r="AA68" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB68">
-        <v>2</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>154</v>
+      <c r="X68" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="18:29" x14ac:dyDescent="0.2">
@@ -2854,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="X69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y69" t="s">
         <v>10</v>
@@ -2876,11 +2879,8 @@
       <c r="W70" t="s">
         <v>2</v>
       </c>
-      <c r="X70" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>10</v>
+      <c r="Z70" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -2899,8 +2899,14 @@
       <c r="W71" t="s">
         <v>2</v>
       </c>
-      <c r="Z71" t="s">
-        <v>167</v>
+      <c r="AA71" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="18:29" x14ac:dyDescent="0.2">
@@ -2923,36 +2929,30 @@
         <v>2</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R73" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="S73" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="T73">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="U73" t="s">
+        <v>167</v>
       </c>
       <c r="V73" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="W73" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB73">
-        <v>2</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
@@ -2965,14 +2965,17 @@
       <c r="T74">
         <v>9</v>
       </c>
-      <c r="U74" t="s">
-        <v>168</v>
-      </c>
       <c r="V74" t="s">
         <v>91</v>
       </c>
       <c r="W74" t="s">
         <v>89</v>
+      </c>
+      <c r="X74" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
@@ -2992,10 +2995,10 @@
         <v>89</v>
       </c>
       <c r="X75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y75" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -3014,11 +3017,8 @@
       <c r="W76" t="s">
         <v>89</v>
       </c>
-      <c r="X76" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>93</v>
+      <c r="Z76" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -3057,8 +3057,14 @@
       <c r="W78" t="s">
         <v>89</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>170</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -3078,13 +3084,13 @@
         <v>89</v>
       </c>
       <c r="AA79" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC79" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -3104,13 +3110,13 @@
         <v>89</v>
       </c>
       <c r="AA80" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="AB80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="18:29" x14ac:dyDescent="0.2">
@@ -3130,13 +3136,13 @@
         <v>89</v>
       </c>
       <c r="AA81" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AB81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC81" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -3156,13 +3162,13 @@
         <v>89</v>
       </c>
       <c r="AA82" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="AB82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC82" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
@@ -3182,13 +3188,13 @@
         <v>89</v>
       </c>
       <c r="AA83" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="AB83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3211,10 +3217,10 @@
         <v>173</v>
       </c>
       <c r="AB84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
@@ -3234,415 +3240,412 @@
         <v>89</v>
       </c>
       <c r="AA85" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="AB85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R86" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="S86" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="T86">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V86" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="W86" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB86">
-        <v>8</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>154</v>
+        <v>129</v>
+      </c>
+      <c r="X86" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R87" t="s">
+        <v>133</v>
+      </c>
+      <c r="S87" t="s">
         <v>134</v>
-      </c>
-      <c r="S87" t="s">
-        <v>135</v>
       </c>
       <c r="T87">
         <v>10</v>
       </c>
       <c r="V87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y87" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R88" t="s">
+        <v>133</v>
+      </c>
+      <c r="S88" t="s">
         <v>134</v>
-      </c>
-      <c r="S88" t="s">
-        <v>135</v>
       </c>
       <c r="T88">
         <v>10</v>
       </c>
       <c r="V88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X88" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="Y88" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R89" t="s">
+        <v>133</v>
+      </c>
+      <c r="S89" t="s">
         <v>134</v>
-      </c>
-      <c r="S89" t="s">
-        <v>135</v>
       </c>
       <c r="T89">
         <v>10</v>
       </c>
       <c r="V89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y89" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R90" t="s">
+        <v>133</v>
+      </c>
+      <c r="S90" t="s">
         <v>134</v>
-      </c>
-      <c r="S90" t="s">
-        <v>135</v>
       </c>
       <c r="T90">
         <v>10</v>
       </c>
       <c r="V90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X90" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="Y90" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R91" t="s">
+        <v>133</v>
+      </c>
+      <c r="S91" t="s">
         <v>134</v>
-      </c>
-      <c r="S91" t="s">
-        <v>135</v>
       </c>
       <c r="T91">
         <v>10</v>
       </c>
       <c r="V91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X91" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Y91" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R92" t="s">
+        <v>133</v>
+      </c>
+      <c r="S92" t="s">
         <v>134</v>
-      </c>
-      <c r="S92" t="s">
-        <v>135</v>
       </c>
       <c r="T92">
         <v>10</v>
       </c>
       <c r="V92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W92" t="s">
+        <v>129</v>
+      </c>
+      <c r="X92" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y92" t="s">
         <v>130</v>
-      </c>
-      <c r="X92" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="93" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R93" t="s">
+        <v>133</v>
+      </c>
+      <c r="S93" t="s">
         <v>134</v>
-      </c>
-      <c r="S93" t="s">
-        <v>135</v>
       </c>
       <c r="T93">
         <v>10</v>
       </c>
       <c r="V93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X93" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="Y93" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R94" t="s">
+        <v>133</v>
+      </c>
+      <c r="S94" t="s">
         <v>134</v>
-      </c>
-      <c r="S94" t="s">
-        <v>135</v>
       </c>
       <c r="T94">
         <v>10</v>
       </c>
       <c r="V94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X94" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Y94" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R95" t="s">
+        <v>133</v>
+      </c>
+      <c r="S95" t="s">
         <v>134</v>
-      </c>
-      <c r="S95" t="s">
-        <v>135</v>
       </c>
       <c r="T95">
         <v>10</v>
       </c>
       <c r="V95" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y95" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R96" t="s">
+        <v>133</v>
+      </c>
+      <c r="S96" t="s">
         <v>134</v>
-      </c>
-      <c r="S96" t="s">
-        <v>135</v>
       </c>
       <c r="T96">
         <v>10</v>
       </c>
       <c r="V96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y96" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R97" t="s">
+        <v>133</v>
+      </c>
+      <c r="S97" t="s">
         <v>134</v>
-      </c>
-      <c r="S97" t="s">
-        <v>135</v>
       </c>
       <c r="T97">
         <v>10</v>
       </c>
       <c r="V97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X97" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Y97" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R98" t="s">
+        <v>133</v>
+      </c>
+      <c r="S98" t="s">
         <v>134</v>
-      </c>
-      <c r="S98" t="s">
-        <v>135</v>
       </c>
       <c r="T98">
         <v>10</v>
       </c>
       <c r="V98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X98" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y98" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R99" t="s">
+        <v>133</v>
+      </c>
+      <c r="S99" t="s">
         <v>134</v>
-      </c>
-      <c r="S99" t="s">
-        <v>135</v>
       </c>
       <c r="T99">
         <v>10</v>
       </c>
       <c r="V99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W99" t="s">
-        <v>130</v>
-      </c>
-      <c r="X99" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>74</v>
+        <v>129</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB99">
+        <v>1</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R100" t="s">
+        <v>133</v>
+      </c>
+      <c r="S100" t="s">
         <v>134</v>
-      </c>
-      <c r="S100" t="s">
-        <v>135</v>
       </c>
       <c r="T100">
         <v>10</v>
       </c>
       <c r="V100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA100" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R101" t="s">
+        <v>133</v>
+      </c>
+      <c r="S101" t="s">
         <v>134</v>
-      </c>
-      <c r="S101" t="s">
-        <v>135</v>
       </c>
       <c r="T101">
         <v>10</v>
       </c>
       <c r="V101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W101" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA101" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="AB101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC101" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R102" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="S102" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="T102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V102" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="W102" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA102" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB102">
-        <v>3</v>
-      </c>
-      <c r="AC102" t="s">
+        <v>55</v>
+      </c>
+      <c r="X102" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y102" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3663,10 +3666,10 @@
         <v>55</v>
       </c>
       <c r="X103" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y103" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="18:29" x14ac:dyDescent="0.2">
@@ -3686,10 +3689,10 @@
         <v>55</v>
       </c>
       <c r="X104" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="Y104" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="18:29" x14ac:dyDescent="0.2">
@@ -3709,10 +3712,10 @@
         <v>55</v>
       </c>
       <c r="X105" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y105" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="18:29" x14ac:dyDescent="0.2">
@@ -3732,10 +3735,10 @@
         <v>55</v>
       </c>
       <c r="X106" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="Y106" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="18:29" x14ac:dyDescent="0.2">
@@ -3755,10 +3758,10 @@
         <v>55</v>
       </c>
       <c r="X107" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Y107" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="18:29" x14ac:dyDescent="0.2">
@@ -3778,10 +3781,10 @@
         <v>55</v>
       </c>
       <c r="X108" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="Y108" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="18:29" x14ac:dyDescent="0.2">
@@ -3801,10 +3804,10 @@
         <v>55</v>
       </c>
       <c r="X109" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="Y109" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="18:29" x14ac:dyDescent="0.2">
@@ -3824,10 +3827,10 @@
         <v>55</v>
       </c>
       <c r="X110" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Y110" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="18:29" x14ac:dyDescent="0.2">
@@ -3847,10 +3850,10 @@
         <v>55</v>
       </c>
       <c r="X111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y111" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="18:29" x14ac:dyDescent="0.2">
@@ -3870,10 +3873,10 @@
         <v>55</v>
       </c>
       <c r="X112" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y112" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="18:36" x14ac:dyDescent="0.2">
@@ -3893,10 +3896,10 @@
         <v>55</v>
       </c>
       <c r="X113" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Y113" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="18:36" x14ac:dyDescent="0.2">
@@ -3916,10 +3919,10 @@
         <v>55</v>
       </c>
       <c r="X114" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y114" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="18:36" x14ac:dyDescent="0.2">
@@ -3938,11 +3941,14 @@
       <c r="W115" t="s">
         <v>55</v>
       </c>
-      <c r="X115" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>74</v>
+      <c r="AA115" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB115">
+        <v>1</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="18:36" x14ac:dyDescent="0.2">
@@ -3962,13 +3968,13 @@
         <v>55</v>
       </c>
       <c r="AA116" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="18:36" x14ac:dyDescent="0.2">
@@ -3988,44 +3994,26 @@
         <v>55</v>
       </c>
       <c r="AA117" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB117">
+        <v>3</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="18:36" x14ac:dyDescent="0.2">
+      <c r="AD118" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE118" t="s">
         <v>182</v>
-      </c>
-      <c r="AB117">
-        <v>2</v>
-      </c>
-      <c r="AC117" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="R118" t="s">
-        <v>60</v>
-      </c>
-      <c r="S118" t="s">
-        <v>61</v>
-      </c>
-      <c r="T118">
-        <v>11</v>
-      </c>
-      <c r="V118" t="s">
-        <v>59</v>
-      </c>
-      <c r="W118" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA118" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB118">
-        <v>3</v>
-      </c>
-      <c r="AC118" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="119" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD119" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE119" t="s">
         <v>183</v>
@@ -4033,7 +4021,7 @@
     </row>
     <row r="120" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD120" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE120" t="s">
         <v>184</v>
@@ -4041,7 +4029,7 @@
     </row>
     <row r="121" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD121" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="AE121" t="s">
         <v>185</v>
@@ -4049,7 +4037,7 @@
     </row>
     <row r="122" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD122" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="AE122" t="s">
         <v>186</v>
@@ -4057,18 +4045,27 @@
     </row>
     <row r="123" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD123" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="AE123" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="124" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD124" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE124" t="s">
+      <c r="AF124">
+        <v>1</v>
+      </c>
+      <c r="AG124" t="s">
         <v>188</v>
+      </c>
+      <c r="AH124">
+        <v>1</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="18:36" x14ac:dyDescent="0.2">
@@ -4076,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="AG125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH125">
         <v>1</v>
@@ -4085,24 +4082,24 @@
         <v>2</v>
       </c>
       <c r="AJ125" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AF126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG126" t="s">
         <v>189</v>
       </c>
       <c r="AH126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ126" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="18:36" x14ac:dyDescent="0.2">
@@ -4110,47 +4107,47 @@
         <v>2</v>
       </c>
       <c r="AG127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH127">
         <v>2</v>
       </c>
       <c r="AI127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ127" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AF128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG128" t="s">
         <v>190</v>
       </c>
       <c r="AH128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG129" t="s">
         <v>191</v>
       </c>
       <c r="AH129">
+        <v>4</v>
+      </c>
+      <c r="AI129">
         <v>3</v>
-      </c>
-      <c r="AI129">
-        <v>1</v>
       </c>
       <c r="AJ129" t="s">
         <v>17</v>
@@ -4158,33 +4155,33 @@
     </row>
     <row r="130" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG130" t="s">
         <v>192</v>
       </c>
       <c r="AH130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ130" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF131">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG131" t="s">
         <v>193</v>
       </c>
       <c r="AH131">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ131" t="s">
         <v>23</v>
@@ -4192,19 +4189,19 @@
     </row>
     <row r="132" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG132" t="s">
         <v>194</v>
       </c>
       <c r="AH132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ132" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="32:36" x14ac:dyDescent="0.2">
@@ -4212,47 +4209,47 @@
         <v>7</v>
       </c>
       <c r="AG133" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH133">
         <v>7</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ133" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG134" t="s">
         <v>195</v>
       </c>
       <c r="AH134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG135" t="s">
         <v>196</v>
       </c>
       <c r="AH135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ135" t="s">
         <v>24</v>
@@ -4260,19 +4257,19 @@
     </row>
     <row r="136" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF136">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG136" t="s">
         <v>197</v>
       </c>
       <c r="AH136">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ136" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="32:36" x14ac:dyDescent="0.2">
@@ -4280,47 +4277,47 @@
         <v>10</v>
       </c>
       <c r="AG137" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH137">
         <v>10</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ137" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF138">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG138" t="s">
         <v>198</v>
       </c>
       <c r="AH138">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI138">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF139">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG139" t="s">
         <v>199</v>
       </c>
       <c r="AH139">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ139" t="s">
         <v>25</v>
@@ -4328,16 +4325,16 @@
     </row>
     <row r="140" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF140">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG140" t="s">
         <v>200</v>
       </c>
       <c r="AH140">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ140" t="s">
         <v>25</v>
@@ -4348,33 +4345,33 @@
         <v>13</v>
       </c>
       <c r="AG141" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH141">
         <v>13</v>
       </c>
       <c r="AI141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ141" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF142">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG142" t="s">
         <v>201</v>
       </c>
       <c r="AH142">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ142" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="32:36" x14ac:dyDescent="0.2">
@@ -4382,33 +4379,33 @@
         <v>14</v>
       </c>
       <c r="AG143" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH143">
         <v>14</v>
       </c>
       <c r="AI143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ143" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF144">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG144" t="s">
         <v>202</v>
       </c>
       <c r="AH144">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ144" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="32:36" x14ac:dyDescent="0.2">
@@ -4416,33 +4413,33 @@
         <v>15</v>
       </c>
       <c r="AG145" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH145">
         <v>15</v>
       </c>
       <c r="AI145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ145" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF146">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG146" t="s">
         <v>203</v>
       </c>
       <c r="AH146">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI146">
         <v>2</v>
       </c>
       <c r="AJ146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="32:36" x14ac:dyDescent="0.2">
@@ -4450,33 +4447,33 @@
         <v>16</v>
       </c>
       <c r="AG147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH147">
         <v>16</v>
       </c>
       <c r="AI147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ147" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF148">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG148" t="s">
         <v>204</v>
       </c>
       <c r="AH148">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ148" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="32:36" x14ac:dyDescent="0.2">
@@ -4484,33 +4481,33 @@
         <v>17</v>
       </c>
       <c r="AG149" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH149">
         <v>17</v>
       </c>
       <c r="AI149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ149" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF150">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG150" t="s">
         <v>205</v>
       </c>
       <c r="AH150">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI150">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AJ150" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="32:36" x14ac:dyDescent="0.2">
@@ -4518,13 +4515,13 @@
         <v>18</v>
       </c>
       <c r="AG151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH151">
         <v>18</v>
       </c>
       <c r="AI151">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ151" t="s">
         <v>30</v>
@@ -4535,13 +4532,13 @@
         <v>18</v>
       </c>
       <c r="AG152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH152">
         <v>18</v>
       </c>
       <c r="AI152">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ152" t="s">
         <v>30</v>
@@ -4552,13 +4549,13 @@
         <v>18</v>
       </c>
       <c r="AG153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH153">
         <v>18</v>
       </c>
       <c r="AI153">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ153" t="s">
         <v>30</v>
@@ -4569,13 +4566,13 @@
         <v>18</v>
       </c>
       <c r="AG154" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH154">
         <v>18</v>
       </c>
       <c r="AI154">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ154" t="s">
         <v>30</v>
@@ -4586,16 +4583,16 @@
         <v>18</v>
       </c>
       <c r="AG155" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH155">
         <v>18</v>
       </c>
       <c r="AI155">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ155" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="32:36" x14ac:dyDescent="0.2">
@@ -4603,16 +4600,16 @@
         <v>18</v>
       </c>
       <c r="AG156" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH156">
         <v>18</v>
       </c>
       <c r="AI156">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ156" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="32:36" x14ac:dyDescent="0.2">
@@ -4620,16 +4617,16 @@
         <v>18</v>
       </c>
       <c r="AG157" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH157">
         <v>18</v>
       </c>
       <c r="AI157">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AJ157" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="32:36" x14ac:dyDescent="0.2">
@@ -4637,13 +4634,13 @@
         <v>18</v>
       </c>
       <c r="AG158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH158">
         <v>18</v>
       </c>
       <c r="AI158">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ158" t="s">
         <v>11</v>
@@ -4654,13 +4651,13 @@
         <v>18</v>
       </c>
       <c r="AG159" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH159">
         <v>18</v>
       </c>
       <c r="AI159">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AJ159" t="s">
         <v>11</v>
@@ -4671,13 +4668,13 @@
         <v>18</v>
       </c>
       <c r="AG160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH160">
         <v>18</v>
       </c>
       <c r="AI160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ160" t="s">
         <v>11</v>
@@ -4688,13 +4685,13 @@
         <v>18</v>
       </c>
       <c r="AG161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH161">
         <v>18</v>
       </c>
       <c r="AI161">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ161" t="s">
         <v>11</v>
@@ -4702,33 +4699,33 @@
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF162">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG162" t="s">
         <v>206</v>
       </c>
       <c r="AH162">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ162" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF163">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG163" t="s">
         <v>207</v>
       </c>
       <c r="AH163">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ163" t="s">
         <v>31</v>
@@ -4736,19 +4733,19 @@
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF164">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG164" t="s">
         <v>208</v>
       </c>
       <c r="AH164">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ164" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
@@ -4756,47 +4753,47 @@
         <v>21</v>
       </c>
       <c r="AG165" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH165">
         <v>21</v>
       </c>
       <c r="AI165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ165" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG166" t="s">
         <v>209</v>
       </c>
       <c r="AH166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI166">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF167">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG167" t="s">
         <v>210</v>
       </c>
       <c r="AH167">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ167" t="s">
         <v>32</v>
@@ -4804,16 +4801,16 @@
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF168">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG168" t="s">
         <v>211</v>
       </c>
       <c r="AH168">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI168">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ168" t="s">
         <v>32</v>
@@ -4824,47 +4821,47 @@
         <v>24</v>
       </c>
       <c r="AG169" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH169">
         <v>24</v>
       </c>
       <c r="AI169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ169" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF170">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG170" t="s">
         <v>212</v>
       </c>
       <c r="AH170">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI170">
         <v>1</v>
       </c>
       <c r="AJ170" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF171">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG171" t="s">
         <v>213</v>
       </c>
       <c r="AH171">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ171" t="s">
         <v>33</v>
@@ -4872,16 +4869,16 @@
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF172">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG172" t="s">
         <v>214</v>
       </c>
       <c r="AH172">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI172">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ172" t="s">
         <v>33</v>
@@ -4892,33 +4889,33 @@
         <v>27</v>
       </c>
       <c r="AG173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AH173">
         <v>27</v>
       </c>
       <c r="AI173">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ173" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF174">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG174" t="s">
         <v>215</v>
       </c>
       <c r="AH174">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ174" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="32:36" x14ac:dyDescent="0.2">
@@ -4926,33 +4923,33 @@
         <v>28</v>
       </c>
       <c r="AG175" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH175">
         <v>28</v>
       </c>
       <c r="AI175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ175" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF176">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG176" t="s">
         <v>216</v>
       </c>
       <c r="AH176">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI176">
         <v>4</v>
       </c>
       <c r="AJ176" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
@@ -4960,33 +4957,33 @@
         <v>29</v>
       </c>
       <c r="AG177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH177">
         <v>29</v>
       </c>
       <c r="AI177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ177" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF178">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG178" t="s">
         <v>217</v>
       </c>
       <c r="AH178">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ178" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
@@ -4994,33 +4991,33 @@
         <v>30</v>
       </c>
       <c r="AG179" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH179">
         <v>30</v>
       </c>
       <c r="AI179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ179" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF180">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG180" t="s">
         <v>218</v>
       </c>
       <c r="AH180">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ180" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
@@ -5028,47 +5025,47 @@
         <v>31</v>
       </c>
       <c r="AG181" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH181">
         <v>31</v>
       </c>
       <c r="AI181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ181" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG182" t="s">
         <v>219</v>
       </c>
       <c r="AH182">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ182" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF183">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG183" t="s">
         <v>220</v>
       </c>
       <c r="AH183">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ183" t="s">
         <v>75</v>
@@ -5076,33 +5073,33 @@
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF184">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AG184" t="s">
         <v>221</v>
       </c>
       <c r="AH184">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI184">
         <v>1</v>
       </c>
       <c r="AJ184" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF185">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG185" t="s">
         <v>222</v>
       </c>
       <c r="AH185">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ185" t="s">
         <v>38</v>
@@ -5110,16 +5107,16 @@
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG186" t="s">
         <v>223</v>
       </c>
       <c r="AH186">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AI186">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ186" t="s">
         <v>38</v>
@@ -5130,33 +5127,33 @@
         <v>36</v>
       </c>
       <c r="AG187" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AH187">
         <v>36</v>
       </c>
       <c r="AI187">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ187" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF188">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG188" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="AH188">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ188" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
@@ -5164,7 +5161,7 @@
         <v>37</v>
       </c>
       <c r="AG189" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH189">
         <v>37</v>
@@ -5173,7 +5170,7 @@
         <v>2</v>
       </c>
       <c r="AJ189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190" spans="32:36" x14ac:dyDescent="0.2">
@@ -5181,7 +5178,7 @@
         <v>37</v>
       </c>
       <c r="AG190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH190">
         <v>37</v>
@@ -5190,7 +5187,7 @@
         <v>2</v>
       </c>
       <c r="AJ190" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
     </row>
     <row r="191" spans="32:36" x14ac:dyDescent="0.2">
@@ -5198,7 +5195,7 @@
         <v>37</v>
       </c>
       <c r="AG191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH191">
         <v>37</v>
@@ -5207,7 +5204,7 @@
         <v>2</v>
       </c>
       <c r="AJ191" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="32:36" x14ac:dyDescent="0.2">
@@ -5215,7 +5212,7 @@
         <v>37</v>
       </c>
       <c r="AG192" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH192">
         <v>37</v>
@@ -5224,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="AJ192" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
@@ -5232,7 +5229,7 @@
         <v>37</v>
       </c>
       <c r="AG193" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH193">
         <v>37</v>
@@ -5241,7 +5238,7 @@
         <v>2</v>
       </c>
       <c r="AJ193" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
@@ -5249,7 +5246,7 @@
         <v>37</v>
       </c>
       <c r="AG194" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH194">
         <v>37</v>
@@ -5258,7 +5255,7 @@
         <v>2</v>
       </c>
       <c r="AJ194" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
@@ -5266,7 +5263,7 @@
         <v>37</v>
       </c>
       <c r="AG195" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH195">
         <v>37</v>
@@ -5275,7 +5272,7 @@
         <v>2</v>
       </c>
       <c r="AJ195" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
@@ -5283,16 +5280,16 @@
         <v>37</v>
       </c>
       <c r="AG196" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH196">
         <v>37</v>
       </c>
       <c r="AI196">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ196" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
@@ -5300,16 +5297,16 @@
         <v>37</v>
       </c>
       <c r="AG197" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH197">
         <v>37</v>
       </c>
       <c r="AI197">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ197" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
@@ -5317,7 +5314,7 @@
         <v>37</v>
       </c>
       <c r="AG198" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH198">
         <v>37</v>
@@ -5326,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="AJ198" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
@@ -5334,16 +5331,16 @@
         <v>37</v>
       </c>
       <c r="AG199" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH199">
         <v>37</v>
       </c>
       <c r="AI199">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ199" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
@@ -5351,16 +5348,16 @@
         <v>37</v>
       </c>
       <c r="AG200" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH200">
         <v>37</v>
       </c>
       <c r="AI200">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ200" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
@@ -5368,7 +5365,7 @@
         <v>37</v>
       </c>
       <c r="AG201" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH201">
         <v>37</v>
@@ -5377,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="AJ201" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
@@ -5385,7 +5382,7 @@
         <v>37</v>
       </c>
       <c r="AG202" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH202">
         <v>37</v>
@@ -5394,7 +5391,7 @@
         <v>2</v>
       </c>
       <c r="AJ202" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
@@ -5402,7 +5399,7 @@
         <v>37</v>
       </c>
       <c r="AG203" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH203">
         <v>37</v>
@@ -5411,7 +5408,7 @@
         <v>2</v>
       </c>
       <c r="AJ203" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="32:36" x14ac:dyDescent="0.2">
@@ -5419,16 +5416,16 @@
         <v>37</v>
       </c>
       <c r="AG204" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH204">
         <v>37</v>
       </c>
       <c r="AI204">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ204" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="205" spans="32:36" x14ac:dyDescent="0.2">
@@ -5436,16 +5433,16 @@
         <v>37</v>
       </c>
       <c r="AG205" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH205">
         <v>37</v>
       </c>
       <c r="AI205">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ205" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="206" spans="32:36" x14ac:dyDescent="0.2">
@@ -5453,7 +5450,7 @@
         <v>37</v>
       </c>
       <c r="AG206" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH206">
         <v>37</v>
@@ -5462,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="AJ206" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" spans="32:36" x14ac:dyDescent="0.2">
@@ -5470,16 +5467,16 @@
         <v>37</v>
       </c>
       <c r="AG207" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH207">
         <v>37</v>
       </c>
       <c r="AI207">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ207" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="208" spans="32:36" x14ac:dyDescent="0.2">
@@ -5487,16 +5484,16 @@
         <v>37</v>
       </c>
       <c r="AG208" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH208">
         <v>37</v>
       </c>
       <c r="AI208">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ208" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
@@ -5504,16 +5501,16 @@
         <v>37</v>
       </c>
       <c r="AG209" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH209">
         <v>37</v>
       </c>
       <c r="AI209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ209" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
@@ -5521,16 +5518,16 @@
         <v>37</v>
       </c>
       <c r="AG210" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH210">
         <v>37</v>
       </c>
       <c r="AI210">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ210" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
@@ -5538,16 +5535,16 @@
         <v>37</v>
       </c>
       <c r="AG211" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH211">
         <v>37</v>
       </c>
       <c r="AI211">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ211" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212" spans="32:36" x14ac:dyDescent="0.2">
@@ -5555,16 +5552,16 @@
         <v>37</v>
       </c>
       <c r="AG212" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH212">
         <v>37</v>
       </c>
       <c r="AI212">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ212" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
@@ -5572,16 +5569,16 @@
         <v>37</v>
       </c>
       <c r="AG213" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH213">
         <v>37</v>
       </c>
       <c r="AI213">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ213" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
@@ -5589,7 +5586,7 @@
         <v>37</v>
       </c>
       <c r="AG214" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH214">
         <v>37</v>
@@ -5598,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="AJ214" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
@@ -5606,7 +5603,7 @@
         <v>37</v>
       </c>
       <c r="AG215" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH215">
         <v>37</v>
@@ -5615,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="AJ215" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
@@ -5623,7 +5620,7 @@
         <v>37</v>
       </c>
       <c r="AG216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH216">
         <v>37</v>
@@ -5632,24 +5629,24 @@
         <v>2</v>
       </c>
       <c r="AJ216" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
     </row>
     <row r="217" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF217">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG217" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="AH217">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ217" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
@@ -5657,33 +5654,33 @@
         <v>38</v>
       </c>
       <c r="AG218" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH218">
         <v>38</v>
       </c>
       <c r="AI218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ218" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF219">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG219" t="s">
         <v>225</v>
       </c>
       <c r="AH219">
+        <v>39</v>
+      </c>
+      <c r="AI219">
+        <v>4</v>
+      </c>
+      <c r="AJ219" t="s">
         <v>38</v>
-      </c>
-      <c r="AI219">
-        <v>2</v>
-      </c>
-      <c r="AJ219" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
@@ -5691,47 +5688,47 @@
         <v>39</v>
       </c>
       <c r="AG220" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH220">
         <v>39</v>
       </c>
       <c r="AI220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ220" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="221" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF221">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG221" t="s">
         <v>226</v>
       </c>
       <c r="AH221">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ221" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF222">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG222" t="s">
         <v>227</v>
       </c>
       <c r="AH222">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ222" t="s">
         <v>76</v>
@@ -5739,19 +5736,19 @@
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF223">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG223" t="s">
         <v>228</v>
       </c>
       <c r="AH223">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI223">
         <v>1</v>
       </c>
       <c r="AJ223" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
@@ -5759,7 +5756,7 @@
         <v>42</v>
       </c>
       <c r="AG224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AH224">
         <v>42</v>
@@ -5768,24 +5765,24 @@
         <v>1</v>
       </c>
       <c r="AJ224" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF225">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG225" t="s">
         <v>229</v>
       </c>
       <c r="AH225">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI225">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
@@ -5793,33 +5790,33 @@
         <v>43</v>
       </c>
       <c r="AG226" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH226">
         <v>43</v>
       </c>
       <c r="AI226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF227">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG227" t="s">
         <v>230</v>
       </c>
       <c r="AH227">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI227">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ227" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
@@ -5827,33 +5824,33 @@
         <v>44</v>
       </c>
       <c r="AG228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH228">
         <v>44</v>
       </c>
       <c r="AI228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ228" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF229">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG229" t="s">
         <v>231</v>
       </c>
       <c r="AH229">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ229" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
@@ -5861,7 +5858,7 @@
         <v>45</v>
       </c>
       <c r="AG230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH230">
         <v>45</v>
@@ -5870,24 +5867,24 @@
         <v>2</v>
       </c>
       <c r="AJ230" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF231">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG231" t="s">
         <v>232</v>
       </c>
       <c r="AH231">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI231">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AJ231" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
@@ -5895,13 +5892,13 @@
         <v>46</v>
       </c>
       <c r="AG232" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH232">
         <v>46</v>
       </c>
       <c r="AI232">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ232" t="s">
         <v>48</v>
@@ -5912,16 +5909,16 @@
         <v>46</v>
       </c>
       <c r="AG233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH233">
         <v>46</v>
       </c>
       <c r="AI233">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AJ233" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
@@ -5929,16 +5926,16 @@
         <v>46</v>
       </c>
       <c r="AG234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH234">
         <v>46</v>
       </c>
       <c r="AI234">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ234" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
@@ -5946,16 +5943,16 @@
         <v>46</v>
       </c>
       <c r="AG235" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH235">
         <v>46</v>
       </c>
       <c r="AI235">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ235" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="236" spans="32:36" x14ac:dyDescent="0.2">
@@ -5963,13 +5960,13 @@
         <v>46</v>
       </c>
       <c r="AG236" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH236">
         <v>46</v>
       </c>
       <c r="AI236">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ236" t="s">
         <v>51</v>
@@ -5980,13 +5977,13 @@
         <v>46</v>
       </c>
       <c r="AG237" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH237">
         <v>46</v>
       </c>
       <c r="AI237">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ237" t="s">
         <v>51</v>
@@ -5997,16 +5994,16 @@
         <v>46</v>
       </c>
       <c r="AG238" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH238">
         <v>46</v>
       </c>
       <c r="AI238">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ238" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
@@ -6014,16 +6011,16 @@
         <v>46</v>
       </c>
       <c r="AG239" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH239">
         <v>46</v>
       </c>
       <c r="AI239">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ239" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
@@ -6031,16 +6028,16 @@
         <v>46</v>
       </c>
       <c r="AG240" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH240">
         <v>46</v>
       </c>
       <c r="AI240">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ240" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
@@ -6048,16 +6045,16 @@
         <v>46</v>
       </c>
       <c r="AG241" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH241">
         <v>46</v>
       </c>
       <c r="AI241">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ241" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
@@ -6065,33 +6062,33 @@
         <v>46</v>
       </c>
       <c r="AG242" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH242">
         <v>46</v>
       </c>
       <c r="AI242">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AJ242" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF243">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG243" t="s">
         <v>233</v>
       </c>
       <c r="AH243">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ243" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
@@ -6099,7 +6096,7 @@
         <v>47</v>
       </c>
       <c r="AG244" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AH244">
         <v>47</v>
@@ -6108,24 +6105,24 @@
         <v>1</v>
       </c>
       <c r="AJ244" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF245">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG245" t="s">
         <v>234</v>
       </c>
       <c r="AH245">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI245">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ245" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
@@ -6133,33 +6130,33 @@
         <v>48</v>
       </c>
       <c r="AG246" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH246">
         <v>48</v>
       </c>
       <c r="AI246">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ246" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF247">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG247" t="s">
         <v>235</v>
       </c>
       <c r="AH247">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ247" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
@@ -6167,33 +6164,33 @@
         <v>49</v>
       </c>
       <c r="AG248" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH248">
         <v>49</v>
       </c>
       <c r="AI248">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ248" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF249">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG249" t="s">
         <v>236</v>
       </c>
       <c r="AH249">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ249" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
@@ -6201,7 +6198,7 @@
         <v>50</v>
       </c>
       <c r="AG250" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AH250">
         <v>50</v>
@@ -6210,24 +6207,24 @@
         <v>2</v>
       </c>
       <c r="AJ250" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF251">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG251" t="s">
         <v>237</v>
       </c>
       <c r="AH251">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI251">
         <v>2</v>
       </c>
       <c r="AJ251" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6235,7 +6232,7 @@
         <v>51</v>
       </c>
       <c r="AG252" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH252">
         <v>51</v>
@@ -6244,24 +6241,24 @@
         <v>2</v>
       </c>
       <c r="AJ252" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF253">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG253" t="s">
         <v>238</v>
       </c>
       <c r="AH253">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI253">
         <v>2</v>
       </c>
       <c r="AJ253" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -6269,7 +6266,7 @@
         <v>52</v>
       </c>
       <c r="AG254" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH254">
         <v>52</v>
@@ -6278,24 +6275,24 @@
         <v>2</v>
       </c>
       <c r="AJ254" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF255">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG255" t="s">
         <v>239</v>
       </c>
       <c r="AH255">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI255">
         <v>2</v>
       </c>
       <c r="AJ255" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6303,7 +6300,7 @@
         <v>53</v>
       </c>
       <c r="AG256" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH256">
         <v>53</v>
@@ -6312,24 +6309,24 @@
         <v>2</v>
       </c>
       <c r="AJ256" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF257">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG257" t="s">
         <v>240</v>
       </c>
       <c r="AH257">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI257">
         <v>2</v>
       </c>
       <c r="AJ257" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -6337,7 +6334,7 @@
         <v>54</v>
       </c>
       <c r="AG258" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH258">
         <v>54</v>
@@ -6346,24 +6343,24 @@
         <v>2</v>
       </c>
       <c r="AJ258" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF259">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG259" t="s">
         <v>241</v>
       </c>
       <c r="AH259">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI259">
         <v>2</v>
       </c>
       <c r="AJ259" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -6371,7 +6368,7 @@
         <v>55</v>
       </c>
       <c r="AG260" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH260">
         <v>55</v>
@@ -6380,24 +6377,24 @@
         <v>2</v>
       </c>
       <c r="AJ260" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF261">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG261" t="s">
         <v>242</v>
       </c>
       <c r="AH261">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI261">
         <v>2</v>
       </c>
       <c r="AJ261" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -6405,7 +6402,7 @@
         <v>56</v>
       </c>
       <c r="AG262" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH262">
         <v>56</v>
@@ -6414,24 +6411,24 @@
         <v>2</v>
       </c>
       <c r="AJ262" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF263">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG263" t="s">
         <v>243</v>
       </c>
       <c r="AH263">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI263">
         <v>2</v>
       </c>
       <c r="AJ263" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -6439,7 +6436,7 @@
         <v>57</v>
       </c>
       <c r="AG264" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH264">
         <v>57</v>
@@ -6448,24 +6445,24 @@
         <v>2</v>
       </c>
       <c r="AJ264" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF265">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG265" t="s">
         <v>244</v>
       </c>
       <c r="AH265">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI265">
         <v>2</v>
       </c>
       <c r="AJ265" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -6473,7 +6470,7 @@
         <v>58</v>
       </c>
       <c r="AG266" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH266">
         <v>58</v>
@@ -6482,24 +6479,24 @@
         <v>2</v>
       </c>
       <c r="AJ266" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF267">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG267" t="s">
         <v>245</v>
       </c>
       <c r="AH267">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI267">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ267" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -6507,33 +6504,33 @@
         <v>59</v>
       </c>
       <c r="AG268" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH268">
         <v>59</v>
       </c>
       <c r="AI268">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ268" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF269">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG269" t="s">
         <v>246</v>
       </c>
       <c r="AH269">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI269">
         <v>3</v>
       </c>
       <c r="AJ269" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
@@ -6541,30 +6538,30 @@
         <v>60</v>
       </c>
       <c r="AG270" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH270">
         <v>60</v>
       </c>
       <c r="AI270">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ270" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF271">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG271" t="s">
         <v>247</v>
       </c>
       <c r="AH271">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI271">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ271" t="s">
         <v>48</v>
@@ -6575,33 +6572,33 @@
         <v>61</v>
       </c>
       <c r="AG272" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH272">
         <v>61</v>
       </c>
       <c r="AI272">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ272" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="273" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF273">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG273" t="s">
         <v>248</v>
       </c>
       <c r="AH273">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI273">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AJ273" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="274" spans="32:36" x14ac:dyDescent="0.2">
@@ -6609,33 +6606,33 @@
         <v>62</v>
       </c>
       <c r="AG274" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH274">
         <v>62</v>
       </c>
       <c r="AI274">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ274" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="275" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF275">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG275" t="s">
         <v>249</v>
       </c>
       <c r="AH275">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ275" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="276" spans="32:36" x14ac:dyDescent="0.2">
@@ -6643,33 +6640,33 @@
         <v>63</v>
       </c>
       <c r="AG276" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH276">
         <v>63</v>
       </c>
       <c r="AI276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ276" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF277">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG277" t="s">
         <v>250</v>
       </c>
       <c r="AH277">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI277">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ277" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="278" spans="32:36" x14ac:dyDescent="0.2">
@@ -6677,33 +6674,33 @@
         <v>64</v>
       </c>
       <c r="AG278" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH278">
         <v>64</v>
       </c>
       <c r="AI278">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ278" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF279">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG279" t="s">
         <v>251</v>
       </c>
       <c r="AH279">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI279">
         <v>3</v>
       </c>
       <c r="AJ279" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="280" spans="32:36" x14ac:dyDescent="0.2">
@@ -6711,33 +6708,33 @@
         <v>65</v>
       </c>
       <c r="AG280" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH280">
         <v>65</v>
       </c>
       <c r="AI280">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ280" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="281" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF281">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG281" t="s">
         <v>252</v>
       </c>
       <c r="AH281">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI281">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ281" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="282" spans="32:36" x14ac:dyDescent="0.2">
@@ -6745,33 +6742,33 @@
         <v>66</v>
       </c>
       <c r="AG282" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH282">
         <v>66</v>
       </c>
       <c r="AI282">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ282" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="283" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF283">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG283" t="s">
         <v>253</v>
       </c>
       <c r="AH283">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI283">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ283" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="284" spans="32:36" x14ac:dyDescent="0.2">
@@ -6779,33 +6776,33 @@
         <v>67</v>
       </c>
       <c r="AG284" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH284">
         <v>67</v>
       </c>
       <c r="AI284">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ284" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="285" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF285">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG285" t="s">
         <v>254</v>
       </c>
       <c r="AH285">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI285">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ285" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="32:36" x14ac:dyDescent="0.2">
@@ -6813,33 +6810,33 @@
         <v>68</v>
       </c>
       <c r="AG286" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH286">
         <v>68</v>
       </c>
       <c r="AI286">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AJ286" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="287" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF287">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG287" t="s">
         <v>255</v>
       </c>
       <c r="AH287">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI287">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ287" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="288" spans="32:36" x14ac:dyDescent="0.2">
@@ -6847,33 +6844,33 @@
         <v>69</v>
       </c>
       <c r="AG288" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH288">
         <v>69</v>
       </c>
       <c r="AI288">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ288" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF289">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG289" t="s">
         <v>256</v>
       </c>
       <c r="AH289">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI289">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ289" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="290" spans="32:36" x14ac:dyDescent="0.2">
@@ -6881,33 +6878,33 @@
         <v>70</v>
       </c>
       <c r="AG290" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH290">
         <v>70</v>
       </c>
       <c r="AI290">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ290" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF291">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG291" t="s">
         <v>257</v>
       </c>
       <c r="AH291">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI291">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ291" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="292" spans="32:36" x14ac:dyDescent="0.2">
@@ -6915,30 +6912,30 @@
         <v>71</v>
       </c>
       <c r="AG292" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH292">
         <v>71</v>
       </c>
       <c r="AI292">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ292" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF293">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG293" t="s">
         <v>258</v>
       </c>
       <c r="AH293">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI293">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ293" t="s">
         <v>11</v>
@@ -6949,33 +6946,33 @@
         <v>72</v>
       </c>
       <c r="AG294" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH294">
         <v>72</v>
       </c>
       <c r="AI294">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ294" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="295" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF295">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG295" t="s">
         <v>259</v>
       </c>
       <c r="AH295">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI295">
         <v>1</v>
       </c>
       <c r="AJ295" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="296" spans="32:36" x14ac:dyDescent="0.2">
@@ -6983,33 +6980,33 @@
         <v>73</v>
       </c>
       <c r="AG296" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH296">
         <v>73</v>
       </c>
       <c r="AI296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ296" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF297">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG297" t="s">
         <v>260</v>
       </c>
       <c r="AH297">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ297" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="298" spans="32:36" x14ac:dyDescent="0.2">
@@ -7017,30 +7014,30 @@
         <v>74</v>
       </c>
       <c r="AG298" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH298">
         <v>74</v>
       </c>
       <c r="AI298">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ298" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="299" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF299">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG299" t="s">
         <v>261</v>
       </c>
       <c r="AH299">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI299">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ299" t="s">
         <v>30</v>
@@ -7051,33 +7048,33 @@
         <v>75</v>
       </c>
       <c r="AG300" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AH300">
         <v>75</v>
       </c>
       <c r="AI300">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ300" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="301" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF301">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG301" t="s">
         <v>262</v>
       </c>
       <c r="AH301">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI301">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ301" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="302" spans="32:36" x14ac:dyDescent="0.2">
@@ -7085,33 +7082,33 @@
         <v>76</v>
       </c>
       <c r="AG302" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH302">
         <v>76</v>
       </c>
       <c r="AI302">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ302" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="303" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF303">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG303" t="s">
         <v>263</v>
       </c>
       <c r="AH303">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI303">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ303" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="304" spans="32:36" x14ac:dyDescent="0.2">
@@ -7119,33 +7116,33 @@
         <v>77</v>
       </c>
       <c r="AG304" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH304">
         <v>77</v>
       </c>
       <c r="AI304">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ304" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="305" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF305">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG305" t="s">
         <v>264</v>
       </c>
       <c r="AH305">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI305">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ305" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="306" spans="32:36" x14ac:dyDescent="0.2">
@@ -7153,50 +7150,50 @@
         <v>78</v>
       </c>
       <c r="AG306" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH306">
         <v>78</v>
       </c>
       <c r="AI306">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ306" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="307" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF307">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG307" t="s">
         <v>265</v>
       </c>
       <c r="AH307">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI307">
         <v>1</v>
       </c>
       <c r="AJ307" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="308" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF308">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG308" t="s">
         <v>266</v>
       </c>
       <c r="AH308">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI308">
         <v>1</v>
       </c>
       <c r="AJ308" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="309" spans="32:36" x14ac:dyDescent="0.2">
@@ -7204,16 +7201,16 @@
         <v>80</v>
       </c>
       <c r="AG309" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH309">
         <v>80</v>
       </c>
       <c r="AI309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ309" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="310" spans="32:36" x14ac:dyDescent="0.2">
@@ -7221,50 +7218,50 @@
         <v>80</v>
       </c>
       <c r="AG310" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH310">
         <v>80</v>
       </c>
       <c r="AI310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ310" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="311" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF311">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG311" t="s">
         <v>267</v>
       </c>
       <c r="AH311">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI311">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ311" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="312" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF312">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG312" t="s">
         <v>268</v>
       </c>
       <c r="AH312">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI312">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ312" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="32:36" x14ac:dyDescent="0.2">
@@ -7272,16 +7269,16 @@
         <v>82</v>
       </c>
       <c r="AG313" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH313">
         <v>82</v>
       </c>
       <c r="AI313">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ313" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="314" spans="32:36" x14ac:dyDescent="0.2">
@@ -7289,47 +7286,47 @@
         <v>82</v>
       </c>
       <c r="AG314" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH314">
         <v>82</v>
       </c>
       <c r="AI314">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ314" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="315" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF315">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG315" t="s">
         <v>269</v>
       </c>
       <c r="AH315">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ315" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="316" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF316">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG316" t="s">
         <v>270</v>
       </c>
       <c r="AH316">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ316" t="s">
         <v>101</v>
@@ -7337,16 +7334,16 @@
     </row>
     <row r="317" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF317">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG317" t="s">
         <v>271</v>
       </c>
       <c r="AH317">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI317">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ317" t="s">
         <v>101</v>
@@ -7354,16 +7351,16 @@
     </row>
     <row r="318" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF318">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG318" t="s">
         <v>272</v>
       </c>
       <c r="AH318">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI318">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ318" t="s">
         <v>101</v>
@@ -7374,33 +7371,33 @@
         <v>86</v>
       </c>
       <c r="AG319" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH319">
         <v>86</v>
       </c>
       <c r="AI319">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ319" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="320" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF320">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG320" t="s">
         <v>273</v>
       </c>
       <c r="AH320">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI320">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ320" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="32:36" x14ac:dyDescent="0.2">
@@ -7408,16 +7405,16 @@
         <v>87</v>
       </c>
       <c r="AG321" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH321">
         <v>87</v>
       </c>
       <c r="AI321">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ321" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="322" spans="32:36" x14ac:dyDescent="0.2">
@@ -7425,30 +7422,30 @@
         <v>87</v>
       </c>
       <c r="AG322" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH322">
         <v>87</v>
       </c>
       <c r="AI322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ322" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="323" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF323">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG323" t="s">
         <v>274</v>
       </c>
       <c r="AH323">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI323">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ323" t="s">
         <v>88</v>
@@ -7459,47 +7456,47 @@
         <v>88</v>
       </c>
       <c r="AG324" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH324">
         <v>88</v>
       </c>
       <c r="AI324">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ324" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF325">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG325" t="s">
         <v>275</v>
       </c>
       <c r="AH325">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI325">
         <v>1</v>
       </c>
       <c r="AJ325" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="326" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF326">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG326" t="s">
         <v>276</v>
       </c>
       <c r="AH326">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ326" t="s">
         <v>113</v>
@@ -7510,16 +7507,16 @@
         <v>90</v>
       </c>
       <c r="AG327" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH327">
         <v>90</v>
       </c>
       <c r="AI327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ327" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="328" spans="32:36" x14ac:dyDescent="0.2">
@@ -7527,7 +7524,7 @@
         <v>90</v>
       </c>
       <c r="AG328" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH328">
         <v>90</v>
@@ -7536,41 +7533,41 @@
         <v>1</v>
       </c>
       <c r="AJ328" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="329" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF329">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG329" t="s">
         <v>277</v>
       </c>
       <c r="AH329">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI329">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ329" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="330" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF330">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG330" t="s">
         <v>278</v>
       </c>
       <c r="AH330">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI330">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ330" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="331" spans="32:36" x14ac:dyDescent="0.2">
@@ -7578,16 +7575,16 @@
         <v>92</v>
       </c>
       <c r="AG331" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH331">
         <v>92</v>
       </c>
       <c r="AI331">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ331" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="332" spans="32:36" x14ac:dyDescent="0.2">
@@ -7595,47 +7592,47 @@
         <v>92</v>
       </c>
       <c r="AG332" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH332">
         <v>92</v>
       </c>
       <c r="AI332">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ332" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="333" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF333">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG333" t="s">
         <v>279</v>
       </c>
       <c r="AH333">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ333" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="334" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF334">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG334" t="s">
         <v>280</v>
       </c>
       <c r="AH334">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ334" t="s">
         <v>118</v>
@@ -7643,16 +7640,16 @@
     </row>
     <row r="335" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF335">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG335" t="s">
         <v>281</v>
       </c>
       <c r="AH335">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ335" t="s">
         <v>118</v>
@@ -7660,19 +7657,19 @@
     </row>
     <row r="336" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF336">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG336" t="s">
         <v>282</v>
       </c>
       <c r="AH336">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AI336">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ336" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="337" spans="32:36" x14ac:dyDescent="0.2">
@@ -7680,33 +7677,33 @@
         <v>96</v>
       </c>
       <c r="AG337" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH337">
         <v>96</v>
       </c>
       <c r="AI337">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ337" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="338" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF338">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG338" t="s">
         <v>283</v>
       </c>
       <c r="AH338">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ338" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="339" spans="32:36" x14ac:dyDescent="0.2">
@@ -7714,16 +7711,16 @@
         <v>97</v>
       </c>
       <c r="AG339" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH339">
         <v>97</v>
       </c>
       <c r="AI339">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ339" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="340" spans="32:36" x14ac:dyDescent="0.2">
@@ -7731,33 +7728,33 @@
         <v>97</v>
       </c>
       <c r="AG340" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH340">
         <v>97</v>
       </c>
       <c r="AI340">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ340" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="341" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF341">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG341" t="s">
         <v>284</v>
       </c>
       <c r="AH341">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AI341">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ341" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="342" spans="32:36" x14ac:dyDescent="0.2">
@@ -7765,33 +7762,33 @@
         <v>98</v>
       </c>
       <c r="AG342" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AH342">
         <v>98</v>
       </c>
       <c r="AI342">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ342" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="343" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF343">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG343" t="s">
         <v>285</v>
       </c>
       <c r="AH343">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI343">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ343" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="344" spans="32:36" x14ac:dyDescent="0.2">
@@ -7799,7 +7796,7 @@
         <v>99</v>
       </c>
       <c r="AG344" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH344">
         <v>99</v>
@@ -7808,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AJ344" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="345" spans="32:36" x14ac:dyDescent="0.2">
@@ -7816,16 +7813,16 @@
         <v>99</v>
       </c>
       <c r="AG345" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH345">
         <v>99</v>
       </c>
       <c r="AI345">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ345" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="346" spans="32:36" x14ac:dyDescent="0.2">
@@ -7833,33 +7830,33 @@
         <v>99</v>
       </c>
       <c r="AG346" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH346">
         <v>99</v>
       </c>
       <c r="AI346">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ346" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="347" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF347">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG347" t="s">
         <v>286</v>
       </c>
       <c r="AH347">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI347">
         <v>1</v>
       </c>
       <c r="AJ347" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
     </row>
     <row r="348" spans="32:36" x14ac:dyDescent="0.2">
@@ -7867,7 +7864,7 @@
         <v>100</v>
       </c>
       <c r="AG348" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH348">
         <v>100</v>
@@ -7876,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="AJ348" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="349" spans="32:36" x14ac:dyDescent="0.2">
@@ -7884,7 +7881,7 @@
         <v>100</v>
       </c>
       <c r="AG349" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH349">
         <v>100</v>
@@ -7893,7 +7890,7 @@
         <v>1</v>
       </c>
       <c r="AJ349" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="32:36" x14ac:dyDescent="0.2">
@@ -7901,16 +7898,16 @@
         <v>100</v>
       </c>
       <c r="AG350" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH350">
         <v>100</v>
       </c>
       <c r="AI350">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ350" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="351" spans="32:36" x14ac:dyDescent="0.2">
@@ -7918,16 +7915,16 @@
         <v>100</v>
       </c>
       <c r="AG351" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH351">
         <v>100</v>
       </c>
       <c r="AI351">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ351" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="352" spans="32:36" x14ac:dyDescent="0.2">
@@ -7935,7 +7932,7 @@
         <v>100</v>
       </c>
       <c r="AG352" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH352">
         <v>100</v>
@@ -7944,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="AJ352" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="353" spans="32:36" x14ac:dyDescent="0.2">
@@ -7952,16 +7949,16 @@
         <v>100</v>
       </c>
       <c r="AG353" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH353">
         <v>100</v>
       </c>
       <c r="AI353">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ353" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="354" spans="32:36" x14ac:dyDescent="0.2">
@@ -7969,16 +7966,16 @@
         <v>100</v>
       </c>
       <c r="AG354" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH354">
         <v>100</v>
       </c>
       <c r="AI354">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ354" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="355" spans="32:36" x14ac:dyDescent="0.2">
@@ -7986,7 +7983,7 @@
         <v>100</v>
       </c>
       <c r="AG355" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH355">
         <v>100</v>
@@ -7995,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="AJ355" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="356" spans="32:36" x14ac:dyDescent="0.2">
@@ -8003,7 +8000,7 @@
         <v>100</v>
       </c>
       <c r="AG356" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH356">
         <v>100</v>
@@ -8012,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="AJ356" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
     </row>
     <row r="357" spans="32:36" x14ac:dyDescent="0.2">
@@ -8020,7 +8017,7 @@
         <v>100</v>
       </c>
       <c r="AG357" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH357">
         <v>100</v>
@@ -8029,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="AJ357" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="358" spans="32:36" x14ac:dyDescent="0.2">
@@ -8037,7 +8034,7 @@
         <v>100</v>
       </c>
       <c r="AG358" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH358">
         <v>100</v>
@@ -8046,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="AJ358" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="359" spans="32:36" x14ac:dyDescent="0.2">
@@ -8054,7 +8051,7 @@
         <v>100</v>
       </c>
       <c r="AG359" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH359">
         <v>100</v>
@@ -8063,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="AJ359" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="360" spans="32:36" x14ac:dyDescent="0.2">
@@ -8071,7 +8068,7 @@
         <v>100</v>
       </c>
       <c r="AG360" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH360">
         <v>100</v>
@@ -8080,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="AJ360" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="361" spans="32:36" x14ac:dyDescent="0.2">
@@ -8088,16 +8085,16 @@
         <v>100</v>
       </c>
       <c r="AG361" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH361">
         <v>100</v>
       </c>
       <c r="AI361">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ361" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="362" spans="32:36" x14ac:dyDescent="0.2">
@@ -8105,16 +8102,16 @@
         <v>100</v>
       </c>
       <c r="AG362" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH362">
         <v>100</v>
       </c>
       <c r="AI362">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ362" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="363" spans="32:36" x14ac:dyDescent="0.2">
@@ -8122,7 +8119,7 @@
         <v>100</v>
       </c>
       <c r="AG363" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH363">
         <v>100</v>
@@ -8131,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="AJ363" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="364" spans="32:36" x14ac:dyDescent="0.2">
@@ -8139,7 +8136,7 @@
         <v>100</v>
       </c>
       <c r="AG364" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH364">
         <v>100</v>
@@ -8148,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="AJ364" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="365" spans="32:36" x14ac:dyDescent="0.2">
@@ -8156,16 +8153,16 @@
         <v>100</v>
       </c>
       <c r="AG365" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH365">
         <v>100</v>
       </c>
       <c r="AI365">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ365" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" spans="32:36" x14ac:dyDescent="0.2">
@@ -8173,16 +8170,16 @@
         <v>100</v>
       </c>
       <c r="AG366" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH366">
         <v>100</v>
       </c>
       <c r="AI366">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ366" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="367" spans="32:36" x14ac:dyDescent="0.2">
@@ -8190,16 +8187,16 @@
         <v>100</v>
       </c>
       <c r="AG367" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH367">
         <v>100</v>
       </c>
       <c r="AI367">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ367" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="368" spans="32:36" x14ac:dyDescent="0.2">
@@ -8207,16 +8204,16 @@
         <v>100</v>
       </c>
       <c r="AG368" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH368">
         <v>100</v>
       </c>
       <c r="AI368">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ368" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="369" spans="32:36" x14ac:dyDescent="0.2">
@@ -8224,16 +8221,16 @@
         <v>100</v>
       </c>
       <c r="AG369" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH369">
         <v>100</v>
       </c>
       <c r="AI369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ369" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="370" spans="32:36" x14ac:dyDescent="0.2">
@@ -8241,7 +8238,7 @@
         <v>100</v>
       </c>
       <c r="AG370" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH370">
         <v>100</v>
@@ -8250,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="AJ370" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="371" spans="32:36" x14ac:dyDescent="0.2">
@@ -8258,7 +8255,7 @@
         <v>100</v>
       </c>
       <c r="AG371" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH371">
         <v>100</v>
@@ -8267,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="AJ371" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="372" spans="32:36" x14ac:dyDescent="0.2">
@@ -8275,16 +8272,16 @@
         <v>100</v>
       </c>
       <c r="AG372" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH372">
         <v>100</v>
       </c>
       <c r="AI372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ372" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="373" spans="32:36" x14ac:dyDescent="0.2">
@@ -8292,16 +8289,16 @@
         <v>100</v>
       </c>
       <c r="AG373" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH373">
         <v>100</v>
       </c>
       <c r="AI373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ373" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="374" spans="32:36" x14ac:dyDescent="0.2">
@@ -8309,16 +8306,16 @@
         <v>100</v>
       </c>
       <c r="AG374" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH374">
         <v>100</v>
       </c>
       <c r="AI374">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ374" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="375" spans="32:36" x14ac:dyDescent="0.2">
@@ -8326,33 +8323,33 @@
         <v>100</v>
       </c>
       <c r="AG375" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH375">
         <v>100</v>
       </c>
       <c r="AI375">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AJ375" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="376" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF376">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG376" t="s">
         <v>287</v>
       </c>
       <c r="AH376">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI376">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AJ376" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="377" spans="32:36" x14ac:dyDescent="0.2">
@@ -8360,38 +8357,21 @@
         <v>101</v>
       </c>
       <c r="AG377" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH377">
         <v>101</v>
       </c>
       <c r="AI377">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ377" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="378" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF378">
-        <v>101</v>
-      </c>
-      <c r="AG378" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH378">
-        <v>101</v>
-      </c>
-      <c r="AI378">
-        <v>1</v>
-      </c>
-      <c r="AJ378" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT398">
-    <sortCondition ref="A1:A398"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT397">
+    <sortCondition ref="A1:A397"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MidiThru2in10out/midithru2in10out_bom.xlsx
+++ b/MidiThru2in10out/midithru2in10out_bom.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru2in10out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6596DCF9-DDCB-B945-B81D-A4186DD7DF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEBE181-4349-4D4A-8539-45BF050740CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="-18880" windowWidth="28040" windowHeight="16260" xr2:uid="{F58E3661-9E76-9C43-AE54-D6A4E14401D0}"/>
+    <workbookView xWindow="8580" yWindow="-17440" windowWidth="28040" windowHeight="16260" xr2:uid="{F58E3661-9E76-9C43-AE54-D6A4E14401D0}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru2in10out" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru2in10out!$A$1:$E$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru2in10out!$A$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="328">
   <si>
     <t>D</t>
   </si>
@@ -1014,6 +1014,9 @@
   </si>
   <si>
     <t>S1 - S10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
 </sst>
 </file>
@@ -1199,11 +1202,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1215,6 +1215,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1224,13 +1237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,7 +1266,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330199</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>123722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1611,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ361"/>
+  <dimension ref="A1:AJ362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1681,13 +1687,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
       <c r="R2" t="s">
         <v>11</v>
       </c>
@@ -1740,19 +1746,19 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R4" t="s">
@@ -1807,13 +1813,13 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="R6" t="s">
         <v>11</v>
       </c>
@@ -1840,13 +1846,13 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="R7" t="s">
@@ -1901,13 +1907,13 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="R9" t="s">
         <v>11</v>
       </c>
@@ -1934,17 +1940,17 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="R10" t="s">
@@ -1973,17 +1979,17 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="R11" t="s">
@@ -2038,13 +2044,13 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="R13" t="s">
         <v>17</v>
       </c>
@@ -2065,17 +2071,17 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>104</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>6</v>
       </c>
       <c r="R14" t="s">
@@ -2101,17 +2107,17 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="R15" t="s">
@@ -2137,17 +2143,17 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="R16" t="s">
@@ -2196,13 +2202,13 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="R18" t="s">
         <v>17</v>
       </c>
@@ -2229,17 +2235,17 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>25</v>
       </c>
       <c r="R19" t="s">
@@ -2265,17 +2271,17 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="R20" t="s">
@@ -2301,17 +2307,17 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="R21" t="s">
@@ -2360,13 +2366,13 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="R23" t="s">
         <v>17</v>
       </c>
@@ -2393,17 +2399,17 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>2</v>
       </c>
       <c r="R24" t="s">
@@ -2432,17 +2438,17 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>3</v>
       </c>
       <c r="R25" t="s">
@@ -2497,13 +2503,13 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="R27" t="s">
         <v>4</v>
       </c>
@@ -2527,17 +2533,17 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="3">
         <v>12</v>
       </c>
       <c r="R28" t="s">
@@ -2563,32 +2569,32 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <v>4</v>
       </c>
       <c r="R30" t="s">
@@ -2611,17 +2617,17 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="3">
         <v>2</v>
       </c>
       <c r="R31" t="s">
@@ -2673,13 +2679,13 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="R33" t="s">
         <v>4</v>
       </c>
@@ -2703,17 +2709,17 @@
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="R34" t="s">
@@ -2736,13 +2742,13 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
         <v>1</v>
       </c>
       <c r="R35" t="s">
@@ -2785,13 +2791,13 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
       <c r="R37" t="s">
         <v>4</v>
       </c>
@@ -2812,17 +2818,17 @@
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="3">
         <v>1</v>
       </c>
       <c r="R38" t="s">
@@ -2851,17 +2857,17 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="R39" t="s">
@@ -2913,13 +2919,13 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
       <c r="R41" t="s">
         <v>4</v>
       </c>
@@ -2943,8 +2949,8 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="E42" s="12"/>
+      <c r="A42" s="8"/>
+      <c r="E42" s="9"/>
       <c r="R42" t="s">
         <v>4</v>
       </c>
@@ -2971,13 +2977,13 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
       <c r="R43" t="s">
         <v>4</v>
       </c>
@@ -3004,13 +3010,13 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="16"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="11"/>
       <c r="R44" t="s">
         <v>4</v>
       </c>
@@ -3037,13 +3043,13 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
       <c r="R45" t="s">
         <v>4</v>
       </c>
@@ -3066,36 +3072,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="R46" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46">
-        <v>7</v>
-      </c>
-      <c r="V46" t="s">
-        <v>3</v>
-      </c>
-      <c r="W46" t="s">
-        <v>2</v>
-      </c>
-      <c r="X46" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="E47" s="12"/>
+      <c r="E47" s="9"/>
       <c r="R47" t="s">
         <v>4</v>
       </c>
@@ -3111,13 +3101,16 @@
       <c r="W47" t="s">
         <v>2</v>
       </c>
-      <c r="Z47" t="s">
-        <v>153</v>
+      <c r="X47" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="E48" s="12"/>
+      <c r="A48" s="8"/>
+      <c r="E48" s="9"/>
       <c r="R48" t="s">
         <v>4</v>
       </c>
@@ -3134,15 +3127,12 @@
         <v>2</v>
       </c>
       <c r="Z48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
+      <c r="A49" s="12"/>
+      <c r="E49" s="9"/>
       <c r="R49" t="s">
         <v>4</v>
       </c>
@@ -3159,10 +3149,15 @@
         <v>2</v>
       </c>
       <c r="Z49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
       <c r="R50" t="s">
         <v>4</v>
       </c>
@@ -3178,14 +3173,8 @@
       <c r="W50" t="s">
         <v>2</v>
       </c>
-      <c r="AA50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB50">
-        <v>1</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>143</v>
+      <c r="Z50" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
@@ -3205,10 +3194,10 @@
         <v>2</v>
       </c>
       <c r="AA51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC51" t="s">
         <v>143</v>
@@ -3219,22 +3208,25 @@
         <v>4</v>
       </c>
       <c r="S52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V52" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W52" t="s">
         <v>2</v>
       </c>
-      <c r="X52" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>8</v>
+      <c r="AA52" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB52">
+        <v>2</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -3254,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="X53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y53" t="s">
         <v>8</v>
@@ -3276,8 +3268,11 @@
       <c r="W54" t="s">
         <v>2</v>
       </c>
-      <c r="Z54" t="s">
-        <v>156</v>
+      <c r="X54" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -3296,14 +3291,8 @@
       <c r="W55" t="s">
         <v>2</v>
       </c>
-      <c r="AA55" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB55">
-        <v>1</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>143</v>
+      <c r="Z55" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -3326,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="AB56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC56" t="s">
         <v>143</v>
@@ -3334,22 +3323,28 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R57" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="S57" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="T57">
-        <v>9</v>
-      </c>
-      <c r="U57" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="V57" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="W57" t="s">
-        <v>83</v>
+        <v>2</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB57">
+        <v>2</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -3362,17 +3357,14 @@
       <c r="T58">
         <v>9</v>
       </c>
+      <c r="U58" t="s">
+        <v>157</v>
+      </c>
       <c r="V58" t="s">
         <v>84</v>
       </c>
       <c r="W58" t="s">
         <v>83</v>
-      </c>
-      <c r="X58" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
@@ -3392,10 +3384,10 @@
         <v>83</v>
       </c>
       <c r="X59" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y59" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -3414,8 +3406,11 @@
       <c r="W60" t="s">
         <v>83</v>
       </c>
-      <c r="Z60" t="s">
-        <v>158</v>
+      <c r="X60" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
@@ -3435,7 +3430,7 @@
         <v>83</v>
       </c>
       <c r="Z61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -3454,14 +3449,8 @@
       <c r="W62" t="s">
         <v>83</v>
       </c>
-      <c r="AA62" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB62">
-        <v>1</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>161</v>
+      <c r="Z62" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -3481,13 +3470,13 @@
         <v>83</v>
       </c>
       <c r="AA63" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AB63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC63" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -3507,10 +3496,10 @@
         <v>83</v>
       </c>
       <c r="AA64" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AB64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC64" t="s">
         <v>143</v>
@@ -3533,13 +3522,13 @@
         <v>83</v>
       </c>
       <c r="AA65" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="AB65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC65" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -3559,13 +3548,13 @@
         <v>83</v>
       </c>
       <c r="AA66" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="AB66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC66" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -3585,10 +3574,10 @@
         <v>83</v>
       </c>
       <c r="AA67" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AB67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC67" t="s">
         <v>143</v>
@@ -3611,10 +3600,10 @@
         <v>83</v>
       </c>
       <c r="AA68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC68" t="s">
         <v>143</v>
@@ -3637,10 +3626,10 @@
         <v>83</v>
       </c>
       <c r="AA69" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="AB69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC69" t="s">
         <v>143</v>
@@ -3648,25 +3637,28 @@
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R70" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="S70" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="T70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V70" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="W70" t="s">
-        <v>120</v>
-      </c>
-      <c r="X70" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>133</v>
+        <v>83</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB70">
+        <v>8</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -3686,10 +3678,10 @@
         <v>120</v>
       </c>
       <c r="X71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y71" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="18:29" x14ac:dyDescent="0.2">
@@ -3709,10 +3701,10 @@
         <v>120</v>
       </c>
       <c r="X72" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="Y72" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="18:29" x14ac:dyDescent="0.2">
@@ -3732,10 +3724,10 @@
         <v>120</v>
       </c>
       <c r="X73" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Y73" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
@@ -3755,10 +3747,10 @@
         <v>120</v>
       </c>
       <c r="X74" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="Y74" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
@@ -3778,10 +3770,10 @@
         <v>120</v>
       </c>
       <c r="X75" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y75" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -3801,10 +3793,10 @@
         <v>120</v>
       </c>
       <c r="X76" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Y76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -3824,10 +3816,10 @@
         <v>120</v>
       </c>
       <c r="X77" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Y77" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -3847,10 +3839,10 @@
         <v>120</v>
       </c>
       <c r="X78" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y78" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -3870,10 +3862,10 @@
         <v>120</v>
       </c>
       <c r="X79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y79" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -3893,10 +3885,10 @@
         <v>120</v>
       </c>
       <c r="X80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y80" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="18:29" x14ac:dyDescent="0.2">
@@ -3916,10 +3908,10 @@
         <v>120</v>
       </c>
       <c r="X81" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Y81" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -3939,10 +3931,10 @@
         <v>120</v>
       </c>
       <c r="X82" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y82" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
@@ -3961,14 +3953,11 @@
       <c r="W83" t="s">
         <v>120</v>
       </c>
-      <c r="AA83" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB83">
-        <v>1</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>138</v>
+      <c r="X83" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3988,10 +3977,10 @@
         <v>120</v>
       </c>
       <c r="AA84" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="AB84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC84" t="s">
         <v>138</v>
@@ -4014,36 +4003,39 @@
         <v>120</v>
       </c>
       <c r="AA85" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="AB85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC85" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R86" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="S86" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="T86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V86" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="W86" t="s">
-        <v>49</v>
-      </c>
-      <c r="X86" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>170</v>
+        <v>120</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB86">
+        <v>3</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.2">
@@ -4063,10 +4055,10 @@
         <v>49</v>
       </c>
       <c r="X87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y87" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="18:29" x14ac:dyDescent="0.2">
@@ -4086,10 +4078,10 @@
         <v>49</v>
       </c>
       <c r="X88" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="Y88" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
@@ -4109,10 +4101,10 @@
         <v>49</v>
       </c>
       <c r="X89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Y89" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
@@ -4132,10 +4124,10 @@
         <v>49</v>
       </c>
       <c r="X90" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="Y90" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
@@ -4155,10 +4147,10 @@
         <v>49</v>
       </c>
       <c r="X91" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y91" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
@@ -4178,10 +4170,10 @@
         <v>49</v>
       </c>
       <c r="X92" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Y92" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="18:29" x14ac:dyDescent="0.2">
@@ -4201,10 +4193,10 @@
         <v>49</v>
       </c>
       <c r="X93" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Y93" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="18:29" x14ac:dyDescent="0.2">
@@ -4224,10 +4216,10 @@
         <v>49</v>
       </c>
       <c r="X94" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y94" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
@@ -4247,10 +4239,10 @@
         <v>49</v>
       </c>
       <c r="X95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y95" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
@@ -4270,10 +4262,10 @@
         <v>49</v>
       </c>
       <c r="X96" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y96" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="18:36" x14ac:dyDescent="0.2">
@@ -4293,10 +4285,10 @@
         <v>49</v>
       </c>
       <c r="X97" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Y97" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="18:36" x14ac:dyDescent="0.2">
@@ -4316,10 +4308,10 @@
         <v>49</v>
       </c>
       <c r="X98" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="18:36" x14ac:dyDescent="0.2">
@@ -4338,14 +4330,11 @@
       <c r="W99" t="s">
         <v>49</v>
       </c>
-      <c r="AA99" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB99">
-        <v>1</v>
-      </c>
-      <c r="AC99" t="s">
-        <v>143</v>
+      <c r="X99" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="18:36" x14ac:dyDescent="0.2">
@@ -4365,10 +4354,10 @@
         <v>49</v>
       </c>
       <c r="AA100" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="AB100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC100" t="s">
         <v>143</v>
@@ -4391,78 +4380,87 @@
         <v>49</v>
       </c>
       <c r="AA101" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="AB101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC101" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="102" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD102" t="s">
+      <c r="R102" t="s">
+        <v>54</v>
+      </c>
+      <c r="S102" t="s">
+        <v>55</v>
+      </c>
+      <c r="T102">
         <v>11</v>
       </c>
-      <c r="AE102" t="s">
-        <v>172</v>
+      <c r="V102" t="s">
+        <v>53</v>
+      </c>
+      <c r="W102" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB102">
+        <v>3</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD103" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE103" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD104" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AE104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD105" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="AE105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD106" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="AE106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD107" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="18:36" x14ac:dyDescent="0.2">
+      <c r="AD108" t="s">
         <v>54</v>
       </c>
-      <c r="AE107" t="s">
+      <c r="AE108" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="108" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AF108">
-        <v>1</v>
-      </c>
-      <c r="AG108" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH108">
-        <v>1</v>
-      </c>
-      <c r="AI108">
-        <v>2</v>
-      </c>
-      <c r="AJ108" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="109" spans="18:36" x14ac:dyDescent="0.2">
@@ -4479,24 +4477,24 @@
         <v>2</v>
       </c>
       <c r="AJ109" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AF110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AH110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="18:36" x14ac:dyDescent="0.2">
@@ -4510,41 +4508,41 @@
         <v>2</v>
       </c>
       <c r="AI111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ111" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AF112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AH113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ113" t="s">
         <v>14</v>
@@ -4552,33 +4550,33 @@
     </row>
     <row r="114" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG114" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ114" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ115" t="s">
         <v>19</v>
@@ -4586,19 +4584,19 @@
     </row>
     <row r="116" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AH116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ116" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="32:36" x14ac:dyDescent="0.2">
@@ -4612,41 +4610,41 @@
         <v>7</v>
       </c>
       <c r="AI117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ117" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF118">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AH118">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF119">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG119" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH119">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ119" t="s">
         <v>20</v>
@@ -4654,19 +4652,19 @@
     </row>
     <row r="120" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF120">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH120">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ120" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="32:36" x14ac:dyDescent="0.2">
@@ -4680,41 +4678,41 @@
         <v>10</v>
       </c>
       <c r="AI121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ121" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF122">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH122">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF123">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH123">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ123" t="s">
         <v>21</v>
@@ -4722,16 +4720,16 @@
     </row>
     <row r="124" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF124">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH124">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ124" t="s">
         <v>21</v>
@@ -4748,27 +4746,27 @@
         <v>13</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ125" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF126">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG126" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH126">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ126" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="32:36" x14ac:dyDescent="0.2">
@@ -4782,27 +4780,27 @@
         <v>14</v>
       </c>
       <c r="AI127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ127" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF128">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG128" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH128">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ128" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="32:36" x14ac:dyDescent="0.2">
@@ -4816,27 +4814,27 @@
         <v>15</v>
       </c>
       <c r="AI129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ129" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF130">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH130">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI130">
         <v>2</v>
       </c>
       <c r="AJ130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="32:36" x14ac:dyDescent="0.2">
@@ -4850,27 +4848,27 @@
         <v>16</v>
       </c>
       <c r="AI131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ131" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF132">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG132" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH132">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ132" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="32:36" x14ac:dyDescent="0.2">
@@ -4884,27 +4882,27 @@
         <v>17</v>
       </c>
       <c r="AI133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ133" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF134">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG134" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH134">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI134">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AJ134" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="32:36" x14ac:dyDescent="0.2">
@@ -4918,7 +4916,7 @@
         <v>18</v>
       </c>
       <c r="AI135">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ135" t="s">
         <v>26</v>
@@ -4935,7 +4933,7 @@
         <v>18</v>
       </c>
       <c r="AI136">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ136" t="s">
         <v>26</v>
@@ -4952,7 +4950,7 @@
         <v>18</v>
       </c>
       <c r="AI137">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ137" t="s">
         <v>26</v>
@@ -4969,7 +4967,7 @@
         <v>18</v>
       </c>
       <c r="AI138">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ138" t="s">
         <v>26</v>
@@ -4986,10 +4984,10 @@
         <v>18</v>
       </c>
       <c r="AI139">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ139" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="32:36" x14ac:dyDescent="0.2">
@@ -5003,10 +5001,10 @@
         <v>18</v>
       </c>
       <c r="AI140">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ140" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="32:36" x14ac:dyDescent="0.2">
@@ -5020,10 +5018,10 @@
         <v>18</v>
       </c>
       <c r="AI141">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AJ141" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="32:36" x14ac:dyDescent="0.2">
@@ -5037,7 +5035,7 @@
         <v>18</v>
       </c>
       <c r="AI142">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ142" t="s">
         <v>9</v>
@@ -5054,7 +5052,7 @@
         <v>18</v>
       </c>
       <c r="AI143">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AJ143" t="s">
         <v>9</v>
@@ -5071,7 +5069,7 @@
         <v>18</v>
       </c>
       <c r="AI144">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ144" t="s">
         <v>9</v>
@@ -5088,7 +5086,7 @@
         <v>18</v>
       </c>
       <c r="AI145">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ145" t="s">
         <v>9</v>
@@ -5096,33 +5094,33 @@
     </row>
     <row r="146" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF146">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG146" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AH146">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ146" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF147">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG147" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH147">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ147" t="s">
         <v>27</v>
@@ -5130,19 +5128,19 @@
     </row>
     <row r="148" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF148">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG148" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH148">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ148" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="32:36" x14ac:dyDescent="0.2">
@@ -5156,41 +5154,41 @@
         <v>21</v>
       </c>
       <c r="AI149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ149" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF150">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH150">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF151">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG151" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH151">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ151" t="s">
         <v>28</v>
@@ -5198,16 +5196,16 @@
     </row>
     <row r="152" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF152">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG152" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH152">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ152" t="s">
         <v>28</v>
@@ -5224,41 +5222,41 @@
         <v>24</v>
       </c>
       <c r="AI153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ153" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF154">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG154" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH154">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI154">
         <v>1</v>
       </c>
       <c r="AJ154" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF155">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG155" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH155">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ155" t="s">
         <v>29</v>
@@ -5266,16 +5264,16 @@
     </row>
     <row r="156" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF156">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG156" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH156">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI156">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ156" t="s">
         <v>29</v>
@@ -5292,27 +5290,27 @@
         <v>27</v>
       </c>
       <c r="AI157">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ157" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF158">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH158">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ158" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="32:36" x14ac:dyDescent="0.2">
@@ -5326,27 +5324,27 @@
         <v>28</v>
       </c>
       <c r="AI159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ159" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF160">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH160">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI160">
         <v>4</v>
       </c>
       <c r="AJ160" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="32:36" x14ac:dyDescent="0.2">
@@ -5360,27 +5358,27 @@
         <v>29</v>
       </c>
       <c r="AI161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ161" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF162">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG162" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH162">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ162" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
@@ -5394,27 +5392,27 @@
         <v>30</v>
       </c>
       <c r="AI163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ163" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF164">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG164" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH164">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ164" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
@@ -5428,41 +5426,41 @@
         <v>31</v>
       </c>
       <c r="AI165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF166">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG166" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH166">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ166" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF167">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG167" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH167">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ167" t="s">
         <v>69</v>
@@ -5470,33 +5468,33 @@
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF168">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG168" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH168">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI168">
         <v>1</v>
       </c>
       <c r="AJ168" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF169">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG169" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH169">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ169" t="s">
         <v>34</v>
@@ -5504,16 +5502,16 @@
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF170">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG170" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH170">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI170">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ170" t="s">
         <v>34</v>
@@ -5530,27 +5528,27 @@
         <v>36</v>
       </c>
       <c r="AI171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ171" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF172">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG172" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="AH172">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ172" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
@@ -5567,7 +5565,7 @@
         <v>2</v>
       </c>
       <c r="AJ173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
@@ -5584,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="AJ174" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" spans="32:36" x14ac:dyDescent="0.2">
@@ -5601,7 +5599,7 @@
         <v>2</v>
       </c>
       <c r="AJ175" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="176" spans="32:36" x14ac:dyDescent="0.2">
@@ -5618,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="AJ176" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
@@ -5635,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="AJ177" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
@@ -5652,7 +5650,7 @@
         <v>2</v>
       </c>
       <c r="AJ178" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
@@ -5669,7 +5667,7 @@
         <v>2</v>
       </c>
       <c r="AJ179" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
@@ -5683,10 +5681,10 @@
         <v>37</v>
       </c>
       <c r="AI180">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ180" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
@@ -5700,10 +5698,10 @@
         <v>37</v>
       </c>
       <c r="AI181">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ181" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
@@ -5720,7 +5718,7 @@
         <v>2</v>
       </c>
       <c r="AJ182" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
@@ -5734,10 +5732,10 @@
         <v>37</v>
       </c>
       <c r="AI183">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ183" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
@@ -5751,10 +5749,10 @@
         <v>37</v>
       </c>
       <c r="AI184">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ184" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
@@ -5771,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="AJ185" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
@@ -5788,7 +5786,7 @@
         <v>2</v>
       </c>
       <c r="AJ186" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="32:36" x14ac:dyDescent="0.2">
@@ -5805,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="AJ187" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
@@ -5819,10 +5817,10 @@
         <v>37</v>
       </c>
       <c r="AI188">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ188" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
@@ -5836,10 +5834,10 @@
         <v>37</v>
       </c>
       <c r="AI189">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ189" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190" spans="32:36" x14ac:dyDescent="0.2">
@@ -5856,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="AJ190" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="191" spans="32:36" x14ac:dyDescent="0.2">
@@ -5870,10 +5868,10 @@
         <v>37</v>
       </c>
       <c r="AI191">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ191" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="32:36" x14ac:dyDescent="0.2">
@@ -5887,10 +5885,10 @@
         <v>37</v>
       </c>
       <c r="AI192">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ192" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
@@ -5904,10 +5902,10 @@
         <v>37</v>
       </c>
       <c r="AI193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ193" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
@@ -5921,10 +5919,10 @@
         <v>37</v>
       </c>
       <c r="AI194">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ194" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
@@ -5938,10 +5936,10 @@
         <v>37</v>
       </c>
       <c r="AI195">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ195" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
@@ -5955,10 +5953,10 @@
         <v>37</v>
       </c>
       <c r="AI196">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ196" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
@@ -5972,10 +5970,10 @@
         <v>37</v>
       </c>
       <c r="AI197">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ197" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
@@ -5992,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="AJ198" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
@@ -6009,7 +6007,7 @@
         <v>2</v>
       </c>
       <c r="AJ199" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
@@ -6026,24 +6024,24 @@
         <v>2</v>
       </c>
       <c r="AJ200" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF201">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG201" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="AH201">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ201" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
@@ -6057,27 +6055,27 @@
         <v>38</v>
       </c>
       <c r="AI202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ202" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF203">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG203" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AH203">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="32:36" x14ac:dyDescent="0.2">
@@ -6091,41 +6089,41 @@
         <v>39</v>
       </c>
       <c r="AI204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ204" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF205">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG205" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH205">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ205" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF206">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG206" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH206">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ206" t="s">
         <v>70</v>
@@ -6133,19 +6131,19 @@
     </row>
     <row r="207" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF207">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG207" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH207">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI207">
         <v>1</v>
       </c>
       <c r="AJ207" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208" spans="32:36" x14ac:dyDescent="0.2">
@@ -6162,24 +6160,24 @@
         <v>1</v>
       </c>
       <c r="AJ208" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF209">
+        <v>42</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH209">
+        <v>42</v>
+      </c>
+      <c r="AI209">
+        <v>1</v>
+      </c>
+      <c r="AJ209" t="s">
         <v>43</v>
-      </c>
-      <c r="AG209" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH209">
-        <v>43</v>
-      </c>
-      <c r="AI209">
-        <v>4</v>
-      </c>
-      <c r="AJ209" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
@@ -6193,27 +6191,27 @@
         <v>43</v>
       </c>
       <c r="AI210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF211">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG211" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH211">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI211">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ211" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="212" spans="32:36" x14ac:dyDescent="0.2">
@@ -6227,27 +6225,27 @@
         <v>44</v>
       </c>
       <c r="AI212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ212" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF213">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG213" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH213">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ213" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
@@ -6264,24 +6262,24 @@
         <v>2</v>
       </c>
       <c r="AJ214" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF215">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH215">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI215">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AJ215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
@@ -6295,7 +6293,7 @@
         <v>46</v>
       </c>
       <c r="AI216">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ216" t="s">
         <v>42</v>
@@ -6312,10 +6310,10 @@
         <v>46</v>
       </c>
       <c r="AI217">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AJ217" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
@@ -6329,10 +6327,10 @@
         <v>46</v>
       </c>
       <c r="AI218">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ218" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
@@ -6346,10 +6344,10 @@
         <v>46</v>
       </c>
       <c r="AI219">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AJ219" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
@@ -6363,7 +6361,7 @@
         <v>46</v>
       </c>
       <c r="AI220">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ220" t="s">
         <v>45</v>
@@ -6380,7 +6378,7 @@
         <v>46</v>
       </c>
       <c r="AI221">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ221" t="s">
         <v>45</v>
@@ -6397,10 +6395,10 @@
         <v>46</v>
       </c>
       <c r="AI222">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ222" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
@@ -6414,10 +6412,10 @@
         <v>46</v>
       </c>
       <c r="AI223">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ223" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
@@ -6431,10 +6429,10 @@
         <v>46</v>
       </c>
       <c r="AI224">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ224" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
@@ -6448,10 +6446,10 @@
         <v>46</v>
       </c>
       <c r="AI225">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ225" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
@@ -6465,27 +6463,27 @@
         <v>46</v>
       </c>
       <c r="AI226">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AJ226" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF227">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG227" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH227">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ227" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
@@ -6502,24 +6500,24 @@
         <v>1</v>
       </c>
       <c r="AJ228" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF229">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG229" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AH229">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ229" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
@@ -6533,27 +6531,27 @@
         <v>48</v>
       </c>
       <c r="AI230">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ230" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF231">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG231" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH231">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI231">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ231" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
@@ -6567,27 +6565,27 @@
         <v>49</v>
       </c>
       <c r="AI232">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ232" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF233">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG233" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH233">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ233" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
@@ -6604,24 +6602,24 @@
         <v>2</v>
       </c>
       <c r="AJ234" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF235">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG235" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH235">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI235">
         <v>2</v>
       </c>
       <c r="AJ235" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="32:36" x14ac:dyDescent="0.2">
@@ -6638,24 +6636,24 @@
         <v>2</v>
       </c>
       <c r="AJ236" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF237">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG237" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AH237">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI237">
         <v>2</v>
       </c>
       <c r="AJ237" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
@@ -6672,24 +6670,24 @@
         <v>2</v>
       </c>
       <c r="AJ238" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF239">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG239" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AH239">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI239">
         <v>2</v>
       </c>
       <c r="AJ239" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
@@ -6706,24 +6704,24 @@
         <v>2</v>
       </c>
       <c r="AJ240" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF241">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG241" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH241">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI241">
         <v>2</v>
       </c>
       <c r="AJ241" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
@@ -6740,24 +6738,24 @@
         <v>2</v>
       </c>
       <c r="AJ242" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF243">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG243" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH243">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI243">
         <v>2</v>
       </c>
       <c r="AJ243" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
@@ -6774,24 +6772,24 @@
         <v>2</v>
       </c>
       <c r="AJ244" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF245">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG245" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH245">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI245">
         <v>2</v>
       </c>
       <c r="AJ245" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
@@ -6808,24 +6806,24 @@
         <v>2</v>
       </c>
       <c r="AJ246" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF247">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG247" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH247">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI247">
         <v>2</v>
       </c>
       <c r="AJ247" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
@@ -6842,24 +6840,24 @@
         <v>2</v>
       </c>
       <c r="AJ248" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF249">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG249" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AH249">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI249">
         <v>2</v>
       </c>
       <c r="AJ249" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
@@ -6876,24 +6874,24 @@
         <v>2</v>
       </c>
       <c r="AJ250" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF251">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG251" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH251">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI251">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ251" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6907,27 +6905,27 @@
         <v>59</v>
       </c>
       <c r="AI252">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ252" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF253">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG253" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH253">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI253">
         <v>3</v>
       </c>
       <c r="AJ253" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -6941,24 +6939,24 @@
         <v>60</v>
       </c>
       <c r="AI254">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ254" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF255">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG255" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AH255">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI255">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ255" t="s">
         <v>42</v>
@@ -6975,27 +6973,27 @@
         <v>61</v>
       </c>
       <c r="AI256">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ256" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF257">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG257" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH257">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI257">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ257" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -7009,27 +7007,27 @@
         <v>62</v>
       </c>
       <c r="AI258">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AJ258" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF259">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG259" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH259">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ259" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -7043,27 +7041,27 @@
         <v>63</v>
       </c>
       <c r="AI260">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ260" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF261">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG261" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH261">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI261">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ261" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -7077,27 +7075,27 @@
         <v>64</v>
       </c>
       <c r="AI262">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ262" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF263">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG263" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH263">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI263">
         <v>3</v>
       </c>
       <c r="AJ263" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -7111,27 +7109,27 @@
         <v>65</v>
       </c>
       <c r="AI264">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ264" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF265">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG265" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH265">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI265">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ265" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -7145,27 +7143,27 @@
         <v>66</v>
       </c>
       <c r="AI266">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ266" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF267">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG267" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH267">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI267">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ267" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -7179,27 +7177,27 @@
         <v>67</v>
       </c>
       <c r="AI268">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ268" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF269">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG269" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH269">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI269">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ269" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
@@ -7213,27 +7211,27 @@
         <v>68</v>
       </c>
       <c r="AI270">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ270" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF271">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG271" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH271">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI271">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ271" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272" spans="32:36" x14ac:dyDescent="0.2">
@@ -7247,27 +7245,27 @@
         <v>69</v>
       </c>
       <c r="AI272">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ272" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="273" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF273">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG273" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH273">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI273">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ273" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="32:36" x14ac:dyDescent="0.2">
@@ -7281,27 +7279,27 @@
         <v>70</v>
       </c>
       <c r="AI274">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ274" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="275" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF275">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG275" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH275">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI275">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ275" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="32:36" x14ac:dyDescent="0.2">
@@ -7315,24 +7313,24 @@
         <v>71</v>
       </c>
       <c r="AI276">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ276" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="277" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF277">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG277" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH277">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI277">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ277" t="s">
         <v>9</v>
@@ -7349,27 +7347,27 @@
         <v>72</v>
       </c>
       <c r="AI278">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ278" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF279">
+        <v>72</v>
+      </c>
+      <c r="AG279" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH279">
+        <v>72</v>
+      </c>
+      <c r="AI279">
+        <v>1</v>
+      </c>
+      <c r="AJ279" t="s">
         <v>73</v>
-      </c>
-      <c r="AG279" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH279">
-        <v>73</v>
-      </c>
-      <c r="AI279">
-        <v>1</v>
-      </c>
-      <c r="AJ279" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="280" spans="32:36" x14ac:dyDescent="0.2">
@@ -7383,27 +7381,27 @@
         <v>73</v>
       </c>
       <c r="AI280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ280" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="281" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF281">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG281" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH281">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ281" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="282" spans="32:36" x14ac:dyDescent="0.2">
@@ -7417,24 +7415,24 @@
         <v>74</v>
       </c>
       <c r="AI282">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ282" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="283" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF283">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG283" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH283">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI283">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ283" t="s">
         <v>26</v>
@@ -7451,27 +7449,27 @@
         <v>75</v>
       </c>
       <c r="AI284">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ284" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF285">
+        <v>75</v>
+      </c>
+      <c r="AG285" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH285">
+        <v>75</v>
+      </c>
+      <c r="AI285">
+        <v>1</v>
+      </c>
+      <c r="AJ285" t="s">
         <v>76</v>
-      </c>
-      <c r="AG285" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH285">
-        <v>76</v>
-      </c>
-      <c r="AI285">
-        <v>8</v>
-      </c>
-      <c r="AJ285" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="286" spans="32:36" x14ac:dyDescent="0.2">
@@ -7485,27 +7483,27 @@
         <v>76</v>
       </c>
       <c r="AI286">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ286" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="287" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF287">
+        <v>76</v>
+      </c>
+      <c r="AG287" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH287">
+        <v>76</v>
+      </c>
+      <c r="AI287">
+        <v>1</v>
+      </c>
+      <c r="AJ287" t="s">
         <v>77</v>
-      </c>
-      <c r="AG287" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH287">
-        <v>77</v>
-      </c>
-      <c r="AI287">
-        <v>10</v>
-      </c>
-      <c r="AJ287" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="288" spans="32:36" x14ac:dyDescent="0.2">
@@ -7519,27 +7517,27 @@
         <v>77</v>
       </c>
       <c r="AI288">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ288" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="289" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF289">
+        <v>77</v>
+      </c>
+      <c r="AG289" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH289">
+        <v>77</v>
+      </c>
+      <c r="AI289">
+        <v>1</v>
+      </c>
+      <c r="AJ289" t="s">
         <v>78</v>
-      </c>
-      <c r="AG289" t="s">
-        <v>254</v>
-      </c>
-      <c r="AH289">
-        <v>78</v>
-      </c>
-      <c r="AI289">
-        <v>12</v>
-      </c>
-      <c r="AJ289" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="290" spans="32:36" x14ac:dyDescent="0.2">
@@ -7553,44 +7551,44 @@
         <v>78</v>
       </c>
       <c r="AI290">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ290" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="291" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF291">
+        <v>78</v>
+      </c>
+      <c r="AG291" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH291">
+        <v>78</v>
+      </c>
+      <c r="AI291">
+        <v>1</v>
+      </c>
+      <c r="AJ291" t="s">
         <v>79</v>
-      </c>
-      <c r="AG291" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH291">
-        <v>79</v>
-      </c>
-      <c r="AI291">
-        <v>1</v>
-      </c>
-      <c r="AJ291" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="292" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF292">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG292" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH292">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI292">
         <v>1</v>
       </c>
       <c r="AJ292" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="293" spans="32:36" x14ac:dyDescent="0.2">
@@ -7604,10 +7602,10 @@
         <v>80</v>
       </c>
       <c r="AI293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ293" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="294" spans="32:36" x14ac:dyDescent="0.2">
@@ -7621,44 +7619,44 @@
         <v>80</v>
       </c>
       <c r="AI294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ294" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="295" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF295">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG295" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH295">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI295">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ295" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="296" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF296">
+        <v>81</v>
+      </c>
+      <c r="AG296" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH296">
+        <v>81</v>
+      </c>
+      <c r="AI296">
+        <v>4</v>
+      </c>
+      <c r="AJ296" t="s">
         <v>82</v>
-      </c>
-      <c r="AG296" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH296">
-        <v>82</v>
-      </c>
-      <c r="AI296">
-        <v>1</v>
-      </c>
-      <c r="AJ296" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="297" spans="32:36" x14ac:dyDescent="0.2">
@@ -7672,10 +7670,10 @@
         <v>82</v>
       </c>
       <c r="AI297">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ297" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="32:36" x14ac:dyDescent="0.2">
@@ -7689,41 +7687,41 @@
         <v>82</v>
       </c>
       <c r="AI298">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ298" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="299" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF299">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG299" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH299">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ299" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF300">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG300" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH300">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ300" t="s">
         <v>93</v>
@@ -7731,16 +7729,16 @@
     </row>
     <row r="301" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF301">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG301" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH301">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI301">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ301" t="s">
         <v>93</v>
@@ -7748,16 +7746,16 @@
     </row>
     <row r="302" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF302">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG302" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AH302">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI302">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ302" t="s">
         <v>93</v>
@@ -7774,27 +7772,27 @@
         <v>86</v>
       </c>
       <c r="AI303">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ303" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="304" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF304">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG304" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH304">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI304">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ304" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="305" spans="32:36" x14ac:dyDescent="0.2">
@@ -7808,10 +7806,10 @@
         <v>87</v>
       </c>
       <c r="AI305">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ305" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="306" spans="32:36" x14ac:dyDescent="0.2">
@@ -7825,24 +7823,24 @@
         <v>87</v>
       </c>
       <c r="AI306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ306" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="307" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF307">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG307" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH307">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI307">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ307" t="s">
         <v>82</v>
@@ -7859,41 +7857,41 @@
         <v>88</v>
       </c>
       <c r="AI308">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ308" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="309" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF309">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG309" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH309">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI309">
         <v>1</v>
       </c>
       <c r="AJ309" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="310" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF310">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG310" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH310">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ310" t="s">
         <v>105</v>
@@ -7910,10 +7908,10 @@
         <v>90</v>
       </c>
       <c r="AI311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ311" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="312" spans="32:36" x14ac:dyDescent="0.2">
@@ -7930,41 +7928,41 @@
         <v>1</v>
       </c>
       <c r="AJ312" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="313" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF313">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG313" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH313">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI313">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ313" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="314" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF314">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG314" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH314">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ314" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
     </row>
     <row r="315" spans="32:36" x14ac:dyDescent="0.2">
@@ -7978,10 +7976,10 @@
         <v>92</v>
       </c>
       <c r="AI315">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ315" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="316" spans="32:36" x14ac:dyDescent="0.2">
@@ -7995,41 +7993,41 @@
         <v>92</v>
       </c>
       <c r="AI316">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ316" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="317" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF317">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG317" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH317">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ317" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="318" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF318">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG318" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH318">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ318" t="s">
         <v>110</v>
@@ -8037,16 +8035,16 @@
     </row>
     <row r="319" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF319">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG319" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH319">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ319" t="s">
         <v>110</v>
@@ -8054,19 +8052,19 @@
     </row>
     <row r="320" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF320">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG320" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AH320">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI320">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ320" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="321" spans="32:36" x14ac:dyDescent="0.2">
@@ -8080,27 +8078,27 @@
         <v>96</v>
       </c>
       <c r="AI321">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ321" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="322" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF322">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG322" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH322">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI322">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ322" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="323" spans="32:36" x14ac:dyDescent="0.2">
@@ -8114,10 +8112,10 @@
         <v>97</v>
       </c>
       <c r="AI323">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ323" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="324" spans="32:36" x14ac:dyDescent="0.2">
@@ -8131,27 +8129,27 @@
         <v>97</v>
       </c>
       <c r="AI324">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ324" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="325" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF325">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG325" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH325">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI325">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ325" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="326" spans="32:36" x14ac:dyDescent="0.2">
@@ -8165,27 +8163,27 @@
         <v>98</v>
       </c>
       <c r="AI326">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ326" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="327" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF327">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG327" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH327">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI327">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ327" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="328" spans="32:36" x14ac:dyDescent="0.2">
@@ -8202,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="AJ328" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="329" spans="32:36" x14ac:dyDescent="0.2">
@@ -8216,10 +8214,10 @@
         <v>99</v>
       </c>
       <c r="AI329">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ329" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="330" spans="32:36" x14ac:dyDescent="0.2">
@@ -8233,27 +8231,27 @@
         <v>99</v>
       </c>
       <c r="AI330">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ330" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="331" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF331">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG331" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH331">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI331">
         <v>1</v>
       </c>
       <c r="AJ331" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="332" spans="32:36" x14ac:dyDescent="0.2">
@@ -8270,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="AJ332" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="333" spans="32:36" x14ac:dyDescent="0.2">
@@ -8287,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="AJ333" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="334" spans="32:36" x14ac:dyDescent="0.2">
@@ -8301,10 +8299,10 @@
         <v>100</v>
       </c>
       <c r="AI334">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ334" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="32:36" x14ac:dyDescent="0.2">
@@ -8318,10 +8316,10 @@
         <v>100</v>
       </c>
       <c r="AI335">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ335" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="336" spans="32:36" x14ac:dyDescent="0.2">
@@ -8338,7 +8336,7 @@
         <v>1</v>
       </c>
       <c r="AJ336" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="337" spans="32:36" x14ac:dyDescent="0.2">
@@ -8352,10 +8350,10 @@
         <v>100</v>
       </c>
       <c r="AI337">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ337" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="338" spans="32:36" x14ac:dyDescent="0.2">
@@ -8369,10 +8367,10 @@
         <v>100</v>
       </c>
       <c r="AI338">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ338" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="339" spans="32:36" x14ac:dyDescent="0.2">
@@ -8389,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="AJ339" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
     </row>
     <row r="340" spans="32:36" x14ac:dyDescent="0.2">
@@ -8406,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="AJ340" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="341" spans="32:36" x14ac:dyDescent="0.2">
@@ -8423,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="AJ341" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="342" spans="32:36" x14ac:dyDescent="0.2">
@@ -8440,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="AJ342" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="32:36" x14ac:dyDescent="0.2">
@@ -8457,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="AJ343" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="344" spans="32:36" x14ac:dyDescent="0.2">
@@ -8474,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="AJ344" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="345" spans="32:36" x14ac:dyDescent="0.2">
@@ -8488,10 +8486,10 @@
         <v>100</v>
       </c>
       <c r="AI345">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ345" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="346" spans="32:36" x14ac:dyDescent="0.2">
@@ -8505,10 +8503,10 @@
         <v>100</v>
       </c>
       <c r="AI346">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ346" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="347" spans="32:36" x14ac:dyDescent="0.2">
@@ -8525,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="AJ347" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="348" spans="32:36" x14ac:dyDescent="0.2">
@@ -8542,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="AJ348" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="349" spans="32:36" x14ac:dyDescent="0.2">
@@ -8556,10 +8554,10 @@
         <v>100</v>
       </c>
       <c r="AI349">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ349" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="350" spans="32:36" x14ac:dyDescent="0.2">
@@ -8573,10 +8571,10 @@
         <v>100</v>
       </c>
       <c r="AI350">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ350" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="32:36" x14ac:dyDescent="0.2">
@@ -8590,10 +8588,10 @@
         <v>100</v>
       </c>
       <c r="AI351">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ351" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="352" spans="32:36" x14ac:dyDescent="0.2">
@@ -8607,10 +8605,10 @@
         <v>100</v>
       </c>
       <c r="AI352">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AJ352" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="353" spans="32:36" x14ac:dyDescent="0.2">
@@ -8624,10 +8622,10 @@
         <v>100</v>
       </c>
       <c r="AI353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ353" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="354" spans="32:36" x14ac:dyDescent="0.2">
@@ -8644,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="AJ354" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="355" spans="32:36" x14ac:dyDescent="0.2">
@@ -8661,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="AJ355" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="356" spans="32:36" x14ac:dyDescent="0.2">
@@ -8675,10 +8673,10 @@
         <v>100</v>
       </c>
       <c r="AI356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ356" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="357" spans="32:36" x14ac:dyDescent="0.2">
@@ -8692,10 +8690,10 @@
         <v>100</v>
       </c>
       <c r="AI357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ357" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="358" spans="32:36" x14ac:dyDescent="0.2">
@@ -8709,10 +8707,10 @@
         <v>100</v>
       </c>
       <c r="AI358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ358" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="359" spans="32:36" x14ac:dyDescent="0.2">
@@ -8726,27 +8724,27 @@
         <v>100</v>
       </c>
       <c r="AI359">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ359" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="360" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF360">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG360" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH360">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI360">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AJ360" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
     </row>
     <row r="361" spans="32:36" x14ac:dyDescent="0.2">
@@ -8760,21 +8758,39 @@
         <v>101</v>
       </c>
       <c r="AI361">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ361" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="362" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF362">
+        <v>101</v>
+      </c>
+      <c r="AG362" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH362">
+        <v>101</v>
+      </c>
+      <c r="AI362">
+        <v>1</v>
+      </c>
+      <c r="AJ362" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT381">
-    <sortCondition ref="A1:A381"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT382">
+    <sortCondition ref="A1:A382"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:C46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MidiThru2in10out/midithru2in10out_bom.xlsx
+++ b/MidiThru2in10out/midithru2in10out_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru2in10out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40813635-73C3-EE4F-B602-E5233AE8507C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCCD192-8B29-8D4F-B2FE-3628F8EB5FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16440" xr2:uid="{F58E3661-9E76-9C43-AE54-D6A4E14401D0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" xr2:uid="{F58E3661-9E76-9C43-AE54-D6A4E14401D0}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru2in10out" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru2in10out!$A$1:$E$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru2in10out!$A$1:$E$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -227,20 +227,20 @@
     <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
   <si>
-    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
-  </si>
-  <si>
     <t>R1, R2, R4-R24, R27, R28</t>
   </si>
   <si>
     <t>* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.</t>
+  </si>
+  <si>
+    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,14 +250,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -419,10 +411,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -437,23 +429,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E51"/>
+  <dimension ref="A2:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,7 +992,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
@@ -1224,7 +1217,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="5"/>
@@ -1238,7 +1231,7 @@
     </row>
     <row r="43" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -1282,39 +1275,37 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N51">
-    <sortCondition ref="A1:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N50">
+    <sortCondition ref="A1:A50"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="A48:C48"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A48:C49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MidiThru2in10out/midithru2in10out_bom.xlsx
+++ b/MidiThru2in10out/midithru2in10out_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru2in10out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCCD192-8B29-8D4F-B2FE-3628F8EB5FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C20D1B-7C91-2B4F-B97C-A9C08B57AEFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" xr2:uid="{F58E3661-9E76-9C43-AE54-D6A4E14401D0}"/>
+    <workbookView xWindow="-35560" yWindow="3140" windowWidth="28800" windowHeight="16340" xr2:uid="{F58E3661-9E76-9C43-AE54-D6A4E14401D0}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru2in10out" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru2in10out!$A$1:$E$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru2in10out!$A$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>Light emitting diode</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
+  </si>
+  <si>
+    <t>* There is a misprint on a silkscreen for R1 component. It's close to the side where track routes to D1.</t>
   </si>
 </sst>
 </file>
@@ -433,15 +436,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -477,7 +480,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>330199</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>123722</xdr:rowOff>
+      <xdr:rowOff>98322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -827,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E50"/>
+  <dimension ref="A2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,13 +845,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1230,82 +1233,91 @@
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="20"/>
-    </row>
-    <row r="47" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N50">
-    <sortCondition ref="A1:A50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A48:C49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
